--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -1550,6 +1550,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="£0.00"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1615,9 +1618,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1921,26 +1926,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1948,13 +1953,13 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>167.41</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>49094653434</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>118</v>
       </c>
       <c r="E2">
@@ -1965,13 +1970,13 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>21.26</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>13233483494</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>931</v>
       </c>
       <c r="E3">
@@ -1982,13 +1987,13 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>240.2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>15624889519</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>82</v>
       </c>
       <c r="E4">
@@ -1999,13 +2004,13 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>151.28</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2477698031502</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>130</v>
       </c>
       <c r="E5">
@@ -2016,13 +2021,13 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>117.87</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>208402613154</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>167</v>
       </c>
       <c r="E6">
@@ -2033,13 +2038,13 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>128.73</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>27135101457</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>153</v>
       </c>
       <c r="E7">
@@ -2050,13 +2055,13 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>368.72</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>17216791485</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>53</v>
       </c>
       <c r="E8">
@@ -2067,13 +2072,13 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>128.7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>227823018980</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>153</v>
       </c>
       <c r="E9">
@@ -2084,13 +2089,13 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>374.2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>254675164340</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>52</v>
       </c>
       <c r="E10">
@@ -2101,13 +2106,13 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>681</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>317187502915</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>29</v>
       </c>
       <c r="E11">
@@ -2118,13 +2123,13 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>187.47</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>68593773645</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>105</v>
       </c>
       <c r="E12">
@@ -2135,13 +2140,13 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>66.26000000000001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>38326102669</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>298</v>
       </c>
       <c r="E13">
@@ -2152,13 +2157,13 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>241.25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>98147140942</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>82</v>
       </c>
       <c r="E14">
@@ -2169,13 +2174,13 @@
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>337.45</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>72665071908</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>58</v>
       </c>
       <c r="E15">
@@ -2186,13 +2191,13 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>86.79000000000001</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>21756062948</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>228</v>
       </c>
       <c r="E16">
@@ -2203,13 +2208,13 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>82.20999999999999</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>42608022724</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>240</v>
       </c>
       <c r="E17">
@@ -2220,13 +2225,13 @@
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>25.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>16532778665</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>788</v>
       </c>
       <c r="E18">
@@ -2237,13 +2242,13 @@
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>57.28</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>39559920595</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>345</v>
       </c>
       <c r="E19">
@@ -2254,13 +2259,13 @@
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>59.19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>48462576581</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>334</v>
       </c>
       <c r="E20">
@@ -2271,13 +2276,13 @@
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>8.16</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>1264601074</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>2426</v>
       </c>
       <c r="E21">
@@ -2288,13 +2293,13 @@
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>166.62</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>9411539367</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>118</v>
       </c>
       <c r="E22">
@@ -2305,13 +2310,13 @@
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>168.44</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>35646574996</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>117</v>
       </c>
       <c r="E23">
@@ -2322,13 +2327,13 @@
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>116.43</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>18960867509</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>170</v>
       </c>
       <c r="E24">
@@ -2339,13 +2344,13 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>283.7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>32908837663</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>69</v>
       </c>
       <c r="E25">
@@ -2356,13 +2361,13 @@
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>714</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>56411664297</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>27</v>
       </c>
       <c r="E26">
@@ -2373,13 +2378,13 @@
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>56.99</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>7106619790</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>347</v>
       </c>
       <c r="E27">
@@ -2390,13 +2395,13 @@
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>116.61</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>34092311671</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>169</v>
       </c>
       <c r="E28">
@@ -2407,13 +2412,13 @@
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>139.85</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>12689186518</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>141</v>
       </c>
       <c r="E29">
@@ -2424,13 +2429,13 @@
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>186.8</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>40404469896</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>106</v>
       </c>
       <c r="E30">
@@ -2441,13 +2446,13 @@
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>157.8</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>147814936303</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>125</v>
       </c>
       <c r="E31">
@@ -2458,13 +2463,13 @@
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>12.57</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>19521016031</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>1575</v>
       </c>
       <c r="E32">
@@ -2475,13 +2480,13 @@
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>151.99</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>184264216353</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>130</v>
       </c>
       <c r="E33">
@@ -2492,13 +2497,13 @@
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>141.26</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>33730682170</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>140</v>
       </c>
       <c r="E34">
@@ -2509,13 +2514,13 @@
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>214.47</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>122215885920</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>92</v>
       </c>
       <c r="E35">
@@ -2526,13 +2531,13 @@
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>323.78</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>35501293196</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>61</v>
       </c>
       <c r="E36">
@@ -2543,13 +2548,13 @@
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>284.7</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>127865715951</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>69</v>
       </c>
       <c r="E37">
@@ -2560,13 +2565,13 @@
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>3605.65</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>1794261307731</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>5</v>
       </c>
       <c r="E38">
@@ -2577,13 +2582,13 @@
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>530</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>42158647790</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>37</v>
       </c>
       <c r="E39">
@@ -2594,13 +2599,13 @@
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>411.17</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>35096344339</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>48</v>
       </c>
       <c r="E40">
@@ -2611,13 +2616,13 @@
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>447.25</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>109106002649</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>44</v>
       </c>
       <c r="E41">
@@ -2628,13 +2633,13 @@
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>314.94</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>69460938304</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>62</v>
       </c>
       <c r="E42">
@@ -2645,13 +2650,13 @@
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>84.38</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>13679354465</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>234</v>
       </c>
       <c r="E43">
@@ -2662,13 +2667,13 @@
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>30.06</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>11001967626</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>658</v>
       </c>
       <c r="E44">
@@ -2679,13 +2684,13 @@
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>312</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>68669944737</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>63</v>
       </c>
       <c r="E45">
@@ -2696,13 +2701,13 @@
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>85.41</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>51920179414</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>231</v>
       </c>
       <c r="E46">
@@ -2713,13 +2718,13 @@
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>177.9</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>46895148709</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>111</v>
       </c>
       <c r="E47">
@@ -2730,13 +2735,13 @@
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>214.49</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>33143840321</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>92</v>
       </c>
       <c r="E48">
@@ -2747,13 +2752,13 @@
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>96.37</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>12566213937</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>205</v>
       </c>
       <c r="E49">
@@ -2764,13 +2769,13 @@
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>73.13</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>55057694434</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>270</v>
       </c>
       <c r="E50">
@@ -2781,13 +2786,13 @@
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>244.97</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>35352966032</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>80</v>
       </c>
       <c r="E51">
@@ -2798,13 +2803,13 @@
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>564.99</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>241560621075</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>35</v>
       </c>
       <c r="E52">
@@ -2815,13 +2820,13 @@
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>234.49</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>19073509798</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>84</v>
       </c>
       <c r="E53">
@@ -2832,13 +2837,13 @@
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>177.13</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>31998262177</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>111</v>
       </c>
       <c r="E54">
@@ -2849,13 +2854,13 @@
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>188.27</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>146615444457</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>105</v>
       </c>
       <c r="E55">
@@ -2866,13 +2871,13 @@
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>1969.62</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>40649639782</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>10</v>
       </c>
       <c r="E56">
@@ -2883,13 +2888,13 @@
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>222.69</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>132716108983</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>88</v>
       </c>
       <c r="E57">
@@ -2900,13 +2905,13 @@
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>48.49</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>401501720057</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <v>408</v>
       </c>
       <c r="E58">
@@ -2917,13 +2922,13 @@
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>81.28</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>41052070201</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>243</v>
       </c>
       <c r="E59">
@@ -2934,13 +2939,13 @@
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>135.83</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>33695176174</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>145</v>
       </c>
       <c r="E60">
@@ -2951,13 +2956,13 @@
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>249</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>73191512411</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>79</v>
       </c>
       <c r="E61">
@@ -2968,13 +2973,13 @@
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>36.41</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>18701549592</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>543</v>
       </c>
       <c r="E62">
@@ -2985,13 +2990,13 @@
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>74</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>34846785009</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>267</v>
       </c>
       <c r="E63">
@@ -3002,13 +3007,13 @@
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>275.95</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>41270341337</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>71</v>
       </c>
       <c r="E64">
@@ -3019,13 +3024,13 @@
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>790.28</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>23454755513</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>25</v>
       </c>
       <c r="E65">
@@ -3036,13 +3041,13 @@
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>61.09</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>51317896291</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>324</v>
       </c>
       <c r="E66">
@@ -3053,13 +3058,13 @@
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>2560.6</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>104703361436</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>7</v>
       </c>
       <c r="E67">
@@ -3070,13 +3075,13 @@
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>24.59</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>25564620169</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>805</v>
       </c>
       <c r="E68">
@@ -3087,13 +3092,13 @@
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>985.05</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>152996014950</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <v>20</v>
       </c>
       <c r="E69">
@@ -3104,13 +3109,13 @@
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>97.34</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>30526970335</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <v>203</v>
       </c>
       <c r="E70">
@@ -3121,13 +3126,13 @@
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>59.82</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>138287541074</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>331</v>
       </c>
       <c r="E71">
@@ -3138,13 +3143,13 @@
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>177.15</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>20649308805</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>111</v>
       </c>
       <c r="E72">
@@ -3155,13 +3160,13 @@
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>296.84</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>659121224266</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <v>66</v>
       </c>
       <c r="E73">
@@ -3172,13 +3177,13 @@
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>42.63</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>62870140043</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <v>464</v>
       </c>
       <c r="E74">
@@ -3189,13 +3194,13 @@
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>49.74</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>11573957398</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>398</v>
       </c>
       <c r="E75">
@@ -3206,13 +3211,13 @@
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>118</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>18497173349</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="3">
         <v>167</v>
       </c>
       <c r="E76">
@@ -3223,13 +3228,13 @@
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>71.70999999999999</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>140368223675</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="3">
         <v>276</v>
       </c>
       <c r="E77">
@@ -3240,13 +3245,13 @@
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>32.48</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>16106014966</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>609</v>
       </c>
       <c r="E78">
@@ -3257,13 +3262,13 @@
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>53.55</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>15194225011</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="3">
         <v>369</v>
       </c>
       <c r="E79">
@@ -3274,13 +3279,13 @@
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>57.74</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>49054148144</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="3">
         <v>342</v>
       </c>
       <c r="E80">
@@ -3291,13 +3296,13 @@
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>213.13</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>118638718002</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="3">
         <v>92</v>
       </c>
       <c r="E81">
@@ -3308,13 +3313,13 @@
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>199.55</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>83851470392</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>99</v>
       </c>
       <c r="E82">
@@ -3325,13 +3330,13 @@
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>136.33</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>13978395639</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>145</v>
       </c>
       <c r="E83">
@@ -3342,13 +3347,13 @@
       <c r="A84" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>110.04</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>35652775248</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>179</v>
       </c>
       <c r="E84">
@@ -3359,13 +3364,13 @@
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>184.96</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>81134602083</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>107</v>
       </c>
       <c r="E85">
@@ -3376,13 +3381,13 @@
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>22.96</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>25488828783</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>862</v>
       </c>
       <c r="E86">
@@ -3393,13 +3398,13 @@
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>186.2</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>50662181004</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="3">
         <v>106</v>
       </c>
       <c r="E87">
@@ -3410,13 +3415,13 @@
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>193.78</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>27089617394</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>102</v>
       </c>
       <c r="E88">
@@ -3427,13 +3432,13 @@
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>171.79</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>18728009730</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>115</v>
       </c>
       <c r="E89">
@@ -3444,13 +3449,13 @@
       <c r="A90" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>76.11</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>22175876910</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>260</v>
       </c>
       <c r="E90">
@@ -3461,13 +3466,13 @@
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>65.93000000000001</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>14470773535</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="3">
         <v>300</v>
       </c>
       <c r="E91">
@@ -3478,13 +3483,13 @@
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>49.49</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>21201487920</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="3">
         <v>400</v>
       </c>
       <c r="E92">
@@ -3495,13 +3500,13 @@
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>90.13</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>22821083797</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="3">
         <v>219</v>
       </c>
       <c r="E93">
@@ -3512,13 +3517,13 @@
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>96.59999999999999</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>12747445091</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="3">
         <v>204</v>
       </c>
       <c r="E94">
@@ -3529,13 +3534,13 @@
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>722.53</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>126710096459</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="3">
         <v>27</v>
       </c>
       <c r="E95">
@@ -3546,13 +3551,13 @@
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>224.19</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>73507531119</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>88</v>
       </c>
       <c r="E96">
@@ -3563,13 +3568,13 @@
       <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>124.05</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>20320472182</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="3">
         <v>159</v>
       </c>
       <c r="E97">
@@ -3580,13 +3585,13 @@
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>80.28</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>66530505242</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>246</v>
       </c>
       <c r="E98">
@@ -3597,13 +3602,13 @@
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>171.46</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>21026573504</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>115</v>
       </c>
       <c r="E99">
@@ -3614,13 +3619,13 @@
       <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>91.52</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>12102456324</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="3">
         <v>216</v>
       </c>
       <c r="E100">
@@ -3631,13 +3636,13 @@
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>55.7</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>254791196523</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <v>355</v>
       </c>
       <c r="E101">
@@ -3648,13 +3653,13 @@
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>234.78</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>84667217299</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="3">
         <v>84</v>
       </c>
       <c r="E102">
@@ -3665,13 +3670,13 @@
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>1945</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>53391324646</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="3">
         <v>10</v>
       </c>
       <c r="E103">
@@ -3682,13 +3687,13 @@
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>244.59</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>33913785881</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="3">
         <v>80</v>
       </c>
       <c r="E104">
@@ -3699,13 +3704,13 @@
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>62</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>17784834672</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="3">
         <v>319</v>
       </c>
       <c r="E105">
@@ -3716,13 +3721,13 @@
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>75.91</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>44281101569</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="3">
         <v>260</v>
       </c>
       <c r="E106">
@@ -3733,13 +3738,13 @@
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>26.7</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>16783556355</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="3">
         <v>741</v>
       </c>
       <c r="E107">
@@ -3750,13 +3755,13 @@
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>163.6</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>69799637030</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="3">
         <v>121</v>
       </c>
       <c r="E108">
@@ -3767,13 +3772,13 @@
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>22.66</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>9167605917</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="3">
         <v>873</v>
       </c>
       <c r="E109">
@@ -3784,13 +3789,13 @@
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>436.51</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>22842219912</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="3">
         <v>45</v>
       </c>
       <c r="E110">
@@ -3801,13 +3806,13 @@
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>73.53</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>98380398174</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="3">
         <v>269</v>
       </c>
       <c r="E111">
@@ -3818,13 +3823,13 @@
       <c r="A112" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>532.02</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>230139616459</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="3">
         <v>37</v>
       </c>
       <c r="E112">
@@ -3835,13 +3840,13 @@
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>11.26</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>9065367333</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="3">
         <v>1758</v>
       </c>
       <c r="E113">
@@ -3852,13 +3857,13 @@
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>43.41</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <v>12993093196</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="3">
         <v>456</v>
       </c>
       <c r="E114">
@@ -3869,13 +3874,13 @@
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>156.7</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>37129247655</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="3">
         <v>126</v>
       </c>
       <c r="E115">
@@ -3886,13 +3891,13 @@
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>306.92</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>301891393049</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="3">
         <v>64</v>
       </c>
       <c r="E116">
@@ -3903,13 +3908,13 @@
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <v>57.15</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>245665515453</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="3">
         <v>346</v>
       </c>
       <c r="E117">
@@ -3920,13 +3925,13 @@
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>36.5</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
         <v>80505183726</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="3">
         <v>542</v>
       </c>
       <c r="E118">
@@ -3937,13 +3942,13 @@
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>443.68</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>47383370543</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="3">
         <v>44</v>
       </c>
       <c r="E119">
@@ -3954,13 +3959,13 @@
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>11</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
         <v>12382629221</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="3">
         <v>1800</v>
       </c>
       <c r="E120">
@@ -3971,13 +3976,13 @@
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>83.86</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>43063175324</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="3">
         <v>236</v>
       </c>
       <c r="E121">
@@ -3988,13 +3993,13 @@
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>49.8</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
         <v>37125325135</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="3">
         <v>397</v>
       </c>
       <c r="E122">
@@ -4005,13 +4010,13 @@
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>92.02</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>11549457967</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="3">
         <v>215</v>
       </c>
       <c r="E123">
@@ -4022,13 +4027,13 @@
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>96.7</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
         <v>126206771403</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="3">
         <v>204</v>
       </c>
       <c r="E124">
@@ -4039,13 +4044,13 @@
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <v>118.95</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>221784769429</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="3">
         <v>166</v>
       </c>
       <c r="E125">
@@ -4056,13 +4061,13 @@
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <v>67</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>13349166264</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="3">
         <v>295</v>
       </c>
       <c r="E126">
@@ -4073,13 +4078,13 @@
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <v>75.34999999999999</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
         <v>61392026562</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="3">
         <v>262</v>
       </c>
       <c r="E127">
@@ -4090,13 +4095,13 @@
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <v>43.44</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
         <v>27626905414</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="3">
         <v>455</v>
       </c>
       <c r="E128">
@@ -4107,13 +4112,13 @@
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <v>83.84</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>42992653908</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="3">
         <v>236</v>
       </c>
       <c r="E129">
@@ -4124,13 +4129,13 @@
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="2">
         <v>361.74</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
         <v>115154971553</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="3">
         <v>54</v>
       </c>
       <c r="E130">
@@ -4141,13 +4146,13 @@
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <v>123.38</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>35872096493</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="3">
         <v>160</v>
       </c>
       <c r="E131">
@@ -4158,13 +4163,13 @@
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <v>235</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>52630811932</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="3">
         <v>84</v>
       </c>
       <c r="E132">
@@ -4175,13 +4180,13 @@
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <v>153</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>18436607709</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="3">
         <v>129</v>
       </c>
       <c r="E133">
@@ -4192,13 +4197,13 @@
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <v>102.07</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>35173326442</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="3">
         <v>194</v>
       </c>
       <c r="E134">
@@ -4209,13 +4214,13 @@
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <v>318.8</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>228063242291</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="3">
         <v>62</v>
       </c>
       <c r="E135">
@@ -4226,13 +4231,13 @@
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <v>165.2</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <v>295897539315</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="3">
         <v>119</v>
       </c>
       <c r="E136">
@@ -4243,13 +4248,13 @@
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <v>28.1</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <v>14116665615</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="3">
         <v>704</v>
       </c>
       <c r="E137">
@@ -4260,13 +4265,13 @@
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <v>28.03</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <v>14300916715</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="3">
         <v>706</v>
       </c>
       <c r="E138">
@@ -4277,13 +4282,13 @@
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <v>36.62</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <v>19986300353</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="3">
         <v>540</v>
       </c>
       <c r="E139">
@@ -4294,13 +4299,13 @@
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <v>160.82</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <v>45955982405</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="3">
         <v>123</v>
       </c>
       <c r="E140">
@@ -4311,13 +4316,13 @@
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <v>116.22</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>26100650069</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="3">
         <v>170</v>
       </c>
       <c r="E141">
@@ -4328,13 +4333,13 @@
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <v>180.98</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <v>25748267163</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="3">
         <v>109</v>
       </c>
       <c r="E142">
@@ -4345,13 +4350,13 @@
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <v>60.79</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>44938823176</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="3">
         <v>325</v>
       </c>
       <c r="E143">
@@ -4362,13 +4367,13 @@
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <v>532.8</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <v>19566580041</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="3">
         <v>37</v>
       </c>
       <c r="E144">
@@ -4379,13 +4384,13 @@
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <v>58.04</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <v>22606751337</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="3">
         <v>341</v>
       </c>
       <c r="E145">
@@ -4396,13 +4401,13 @@
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <v>150.81</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <v>19861949363</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="3">
         <v>131</v>
       </c>
       <c r="E146">
@@ -4413,13 +4418,13 @@
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <v>117.48</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>22174586146</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="3">
         <v>168</v>
       </c>
       <c r="E147">
@@ -4430,13 +4435,13 @@
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <v>103.84</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <v>78519426411</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="3">
         <v>190</v>
       </c>
       <c r="E148">
@@ -4447,13 +4452,13 @@
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <v>107.03</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <v>10815420048</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="3">
         <v>185</v>
       </c>
       <c r="E149">
@@ -4464,13 +4469,13 @@
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <v>43.83</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
         <v>29260697477</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="3">
         <v>451</v>
       </c>
       <c r="E150">
@@ -4481,13 +4486,13 @@
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <v>33.52</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>8565853851</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="3">
         <v>590</v>
       </c>
       <c r="E151">
@@ -4498,13 +4503,13 @@
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <v>661.13</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
         <v>65791794967</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="3">
         <v>29</v>
       </c>
       <c r="E152">
@@ -4515,13 +4520,13 @@
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <v>145.66</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>41252492132</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="3">
         <v>135</v>
       </c>
       <c r="E153">
@@ -4532,13 +4537,13 @@
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <v>75.31</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>48472058495</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="3">
         <v>262</v>
       </c>
       <c r="E154">
@@ -4549,13 +4554,13 @@
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <v>241.36</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>67800017621</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="3">
         <v>82</v>
       </c>
       <c r="E155">
@@ -4566,13 +4571,13 @@
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="2">
         <v>80.83</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <v>27658385251</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="3">
         <v>244</v>
       </c>
       <c r="E156">
@@ -4583,13 +4588,13 @@
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="2">
         <v>286.63</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>34474683384</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="3">
         <v>69</v>
       </c>
       <c r="E157">
@@ -4600,13 +4605,13 @@
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <v>66.23</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="2">
         <v>25223176233</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="3">
         <v>298</v>
       </c>
       <c r="E158">
@@ -4617,13 +4622,13 @@
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="2">
         <v>355.4</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>130831699655</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="3">
         <v>55</v>
       </c>
       <c r="E159">
@@ -4634,13 +4639,13 @@
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="2">
         <v>116.04</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <v>16258319144</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="3">
         <v>170</v>
       </c>
       <c r="E160">
@@ -4651,13 +4656,13 @@
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="2">
         <v>97.76000000000001</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>60090005113</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="3">
         <v>202</v>
       </c>
       <c r="E161">
@@ -4668,13 +4673,13 @@
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="2">
         <v>98.48999999999999</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <v>55822176980</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="3">
         <v>201</v>
       </c>
       <c r="E162">
@@ -4685,13 +4690,13 @@
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="2">
         <v>778.37</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>72853452278</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="3">
         <v>25</v>
       </c>
       <c r="E163">
@@ -4702,13 +4707,13 @@
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="2">
         <v>88.14</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="2">
         <v>32647462242</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="3">
         <v>224</v>
       </c>
       <c r="E164">
@@ -4719,13 +4724,13 @@
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="2">
         <v>85.34999999999999</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>28343227385</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="3">
         <v>232</v>
       </c>
       <c r="E165">
@@ -4736,13 +4741,13 @@
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="2">
         <v>359.91</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="2">
         <v>23022549230</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="3">
         <v>55</v>
       </c>
       <c r="E166">
@@ -4753,13 +4758,13 @@
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="2">
         <v>50.74</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <v>11110283057</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="3">
         <v>390</v>
       </c>
       <c r="E167">
@@ -4770,13 +4775,13 @@
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="2">
         <v>180.1</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="2">
         <v>70855980723</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="3">
         <v>109</v>
       </c>
       <c r="E168">
@@ -4787,13 +4792,13 @@
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="2">
         <v>104.9</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>21108130349</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="3">
         <v>188</v>
       </c>
       <c r="E169">
@@ -4804,13 +4809,13 @@
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="2">
         <v>64.7</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="2">
         <v>15483728765</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="3">
         <v>306</v>
       </c>
       <c r="E170">
@@ -4821,13 +4826,13 @@
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="2">
         <v>116</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="2">
         <v>73504736147</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="3">
         <v>170</v>
       </c>
       <c r="E171">
@@ -4838,13 +4843,13 @@
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="2">
         <v>55.6</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="2">
         <v>53458115541</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="3">
         <v>356</v>
       </c>
       <c r="E172">
@@ -4855,13 +4860,13 @@
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="2">
         <v>132.45</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="2">
         <v>22375713378</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="3">
         <v>149</v>
       </c>
       <c r="E173">
@@ -4872,13 +4877,13 @@
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="2">
         <v>183.12</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="2">
         <v>26731701891</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="3">
         <v>108</v>
       </c>
       <c r="E174">
@@ -4889,13 +4894,13 @@
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="2">
         <v>202.34</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="2">
         <v>27609001060</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="3">
         <v>97</v>
       </c>
       <c r="E175">
@@ -4906,13 +4911,13 @@
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="2">
         <v>19.9</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="2">
         <v>77354973445</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="3">
         <v>995</v>
       </c>
       <c r="E176">
@@ -4923,13 +4928,13 @@
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="2">
         <v>110.18</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="2">
         <v>20808394145</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="3">
         <v>179</v>
       </c>
       <c r="E177">
@@ -4940,13 +4945,13 @@
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="2">
         <v>61.24</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="2">
         <v>35641722402</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="3">
         <v>323</v>
       </c>
       <c r="E178">
@@ -4957,13 +4962,13 @@
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="2">
         <v>357.04</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
         <v>993685068409</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="3">
         <v>55</v>
       </c>
       <c r="E179">
@@ -4974,13 +4979,13 @@
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="2">
         <v>111.3</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="2">
         <v>14852160393</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="3">
         <v>177</v>
       </c>
       <c r="E180">
@@ -4991,13 +4996,13 @@
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="2">
         <v>41.73</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="2">
         <v>61373204897</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="3">
         <v>474</v>
       </c>
       <c r="E181">
@@ -5008,13 +5013,13 @@
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="2">
         <v>253.97</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="2">
         <v>70367728253</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="3">
         <v>77</v>
       </c>
       <c r="E182">
@@ -5025,13 +5030,13 @@
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="2">
         <v>40</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="2">
         <v>21284148266</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="3">
         <v>495</v>
       </c>
       <c r="E183">
@@ -5042,13 +5047,13 @@
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="2">
         <v>235.3</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="2">
         <v>14069071505</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="3">
         <v>84</v>
       </c>
       <c r="E184">
@@ -5059,13 +5064,13 @@
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="2">
         <v>118.57</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>71735062504</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="3">
         <v>167</v>
       </c>
       <c r="E185">
@@ -5076,13 +5081,13 @@
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="2">
         <v>105.39</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="2">
         <v>68473800807</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="3">
         <v>187</v>
       </c>
       <c r="E186">
@@ -5093,13 +5098,13 @@
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="2">
         <v>46.14</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="2">
         <v>31594372641</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="3">
         <v>429</v>
       </c>
       <c r="E187">
@@ -5110,13 +5115,13 @@
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="2">
         <v>58.31</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="2">
         <v>7838967209</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="3">
         <v>339</v>
       </c>
       <c r="E188">
@@ -5127,13 +5132,13 @@
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="2">
         <v>34.5</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
         <v>4545630145</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="3">
         <v>573</v>
       </c>
       <c r="E189">
@@ -5144,13 +5149,13 @@
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="2">
         <v>244.39</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="2">
         <v>20321789531</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="3">
         <v>81</v>
       </c>
       <c r="E190">
@@ -5161,13 +5166,13 @@
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="2">
         <v>110.12</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>13721409373</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="3">
         <v>179</v>
       </c>
       <c r="E191">
@@ -5178,13 +5183,13 @@
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="2">
         <v>38.57</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="2">
         <v>23723556284</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="3">
         <v>513</v>
       </c>
       <c r="E192">
@@ -5195,13 +5200,13 @@
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="2">
         <v>41.4</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>23713888378</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="3">
         <v>478</v>
       </c>
       <c r="E193">
@@ -5212,13 +5217,13 @@
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="2">
         <v>225.77</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="2">
         <v>37830453816</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="3">
         <v>87</v>
       </c>
       <c r="E194">
@@ -5229,13 +5234,13 @@
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="2">
         <v>130.72</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="2">
         <v>10129320263</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="3">
         <v>151</v>
       </c>
       <c r="E195">
@@ -5246,13 +5251,13 @@
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="2">
         <v>7.08</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="2">
         <v>3147966278</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="3">
         <v>2796</v>
       </c>
       <c r="E196">
@@ -5263,13 +5268,13 @@
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="2">
         <v>355.59</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="2">
         <v>57305118578</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="3">
         <v>55</v>
       </c>
       <c r="E197">
@@ -5280,13 +5285,13 @@
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="2">
         <v>80.02</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="2">
         <v>29121550734</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="3">
         <v>247</v>
       </c>
       <c r="E198">
@@ -5297,13 +5302,13 @@
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="2">
         <v>202.56</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="2">
         <v>58170770105</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="3">
         <v>97</v>
       </c>
       <c r="E199">
@@ -5314,13 +5319,13 @@
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="2">
         <v>107.75</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="2">
         <v>118943224192</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="3">
         <v>183</v>
       </c>
       <c r="E200">
@@ -5331,13 +5336,13 @@
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="2">
         <v>70.08</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="2">
         <v>85763522065</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="3">
         <v>282</v>
       </c>
       <c r="E201">
@@ -5348,13 +5353,13 @@
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="2">
         <v>63.88</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="2">
         <v>39397992154</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="3">
         <v>309</v>
       </c>
       <c r="E202">
@@ -5365,13 +5370,13 @@
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="2">
         <v>94.84999999999999</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>9944055424</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="3">
         <v>208</v>
       </c>
       <c r="E203">
@@ -5382,13 +5387,13 @@
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="2">
         <v>39.6</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="2">
         <v>33858504760</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="3">
         <v>500</v>
       </c>
       <c r="E204">
@@ -5399,13 +5404,13 @@
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="2">
         <v>65.59999999999999</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="2">
         <v>95217067160</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="3">
         <v>301</v>
       </c>
       <c r="E205">
@@ -5416,13 +5421,13 @@
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="2">
         <v>3081.98</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="2">
         <v>2077277348962</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="3">
         <v>6</v>
       </c>
       <c r="E206">
@@ -5433,13 +5438,13 @@
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="2">
         <v>3010.14</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="2">
         <v>2121786170123</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="3">
         <v>6</v>
       </c>
       <c r="E207">
@@ -5450,13 +5455,13 @@
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="2">
         <v>140.35</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="2">
         <v>20092441307</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="3">
         <v>141</v>
       </c>
       <c r="E208">
@@ -5467,13 +5472,13 @@
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="2">
         <v>136.35</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="2">
         <v>38554140625</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="3">
         <v>145</v>
       </c>
       <c r="E209">
@@ -5484,13 +5489,13 @@
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="2">
         <v>25.56</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="2">
         <v>9356908572</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="3">
         <v>774</v>
       </c>
       <c r="E210">
@@ -5501,13 +5506,13 @@
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="2">
         <v>147.73</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="2">
         <v>27761131609</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="3">
         <v>134</v>
       </c>
       <c r="E211">
@@ -5518,13 +5523,13 @@
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="2">
         <v>408.87</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="2">
         <v>136808730491</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="3">
         <v>48</v>
       </c>
       <c r="E212">
@@ -5535,13 +5540,13 @@
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="2">
         <v>500.92</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="2">
         <v>25272695074</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="3">
         <v>39</v>
       </c>
       <c r="E213">
@@ -5552,13 +5557,13 @@
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="2">
         <v>24.55</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="2">
         <v>21755340128</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="3">
         <v>806</v>
       </c>
       <c r="E214">
@@ -5569,13 +5574,13 @@
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="2">
         <v>101.3</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="2">
         <v>14117460189</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="3">
         <v>195</v>
       </c>
       <c r="E215">
@@ -5586,13 +5591,13 @@
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="2">
         <v>16.52</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="2">
         <v>24436281051</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="3">
         <v>1198</v>
       </c>
       <c r="E216">
@@ -5603,13 +5608,13 @@
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="2">
         <v>18.37</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="2">
         <v>6395871628</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="3">
         <v>1077</v>
       </c>
       <c r="E217">
@@ -5620,13 +5625,13 @@
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="2">
         <v>254.44</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="2">
         <v>78767182579</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="3">
         <v>77</v>
       </c>
       <c r="E218">
@@ -5637,13 +5642,13 @@
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="2">
         <v>384.65</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="2">
         <v>394895254834</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="3">
         <v>51</v>
       </c>
       <c r="E219">
@@ -5654,13 +5659,13 @@
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="2">
         <v>85.90000000000001</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="2">
         <v>25460799654</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="3">
         <v>230</v>
       </c>
       <c r="E220">
@@ -5671,13 +5676,13 @@
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="2">
         <v>36.16</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="2">
         <v>5713095749</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="3">
         <v>547</v>
       </c>
       <c r="E221">
@@ -5688,13 +5693,13 @@
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="2">
         <v>74.18000000000001</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="2">
         <v>25262064192</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="3">
         <v>266</v>
       </c>
       <c r="E222">
@@ -5705,13 +5710,13 @@
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="2">
         <v>194.65</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="2">
         <v>7972662440</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="3">
         <v>101</v>
       </c>
       <c r="E223">
@@ -5722,13 +5727,13 @@
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="2">
         <v>146.08</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="2">
         <v>40252634096</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="3">
         <v>135</v>
       </c>
       <c r="E224">
@@ -5739,13 +5744,13 @@
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="2">
         <v>74.92</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="2">
         <v>18662408524</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="3">
         <v>264</v>
       </c>
       <c r="E225">
@@ -5756,13 +5761,13 @@
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="2">
         <v>231.52</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="2">
         <v>156194341140</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="3">
         <v>85</v>
       </c>
       <c r="E226">
@@ -5773,13 +5778,13 @@
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="2">
         <v>15.3</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="2">
         <v>19467517335</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="3">
         <v>1294</v>
       </c>
       <c r="E227">
@@ -5790,13 +5795,13 @@
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="2">
         <v>32.63</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="2">
         <v>38261645324</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="3">
         <v>606</v>
       </c>
       <c r="E228">
@@ -5807,13 +5812,13 @@
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="2">
         <v>24.7</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
         <v>4300472667</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="3">
         <v>801</v>
       </c>
       <c r="E229">
@@ -5824,13 +5829,13 @@
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="2">
         <v>43.61</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="2">
         <v>23625983108</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="3">
         <v>454</v>
       </c>
       <c r="E230">
@@ -5841,13 +5846,13 @@
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="2">
         <v>80.69</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="2">
         <v>11406884537</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="3">
         <v>245</v>
       </c>
       <c r="E231">
@@ -5858,13 +5863,13 @@
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="2">
         <v>18.34</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="2">
         <v>13133377230</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="3">
         <v>1079</v>
       </c>
       <c r="E232">
@@ -5875,13 +5880,13 @@
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="2">
         <v>182.21</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="2">
         <v>38129451044</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="3">
         <v>108</v>
       </c>
       <c r="E233">
@@ -5892,13 +5897,13 @@
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="2">
         <v>447.94</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="2">
         <v>57905059828</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="3">
         <v>44</v>
       </c>
       <c r="E234">
@@ -5909,13 +5914,13 @@
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="2">
         <v>32.16</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="2">
         <v>13958269568</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="3">
         <v>615</v>
       </c>
       <c r="E235">
@@ -5926,13 +5931,13 @@
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="2">
         <v>123.96</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="2">
         <v>107960299318</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="3">
         <v>159</v>
       </c>
       <c r="E236">
@@ -5943,13 +5948,13 @@
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="2">
         <v>140.3</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="2">
         <v>76753556828</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="3">
         <v>141</v>
       </c>
       <c r="E237">
@@ -5960,13 +5965,13 @@
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="2">
         <v>630.62</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="2">
         <v>55329402897</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="3">
         <v>31</v>
       </c>
       <c r="E238">
@@ -5977,13 +5982,13 @@
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="2">
         <v>245.99</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="2">
         <v>17912439209</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="3">
         <v>80</v>
       </c>
       <c r="E239">
@@ -5994,13 +5999,13 @@
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="2">
         <v>155.47</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="2">
         <v>39776562320</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="3">
         <v>127</v>
       </c>
       <c r="E240">
@@ -6011,13 +6016,13 @@
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="2">
         <v>402.11</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="2">
         <v>59944600853</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="3">
         <v>49</v>
       </c>
       <c r="E241">
@@ -6028,13 +6033,13 @@
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="2">
         <v>68.31</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="2">
         <v>14539044584</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="3">
         <v>289</v>
       </c>
       <c r="E242">
@@ -6045,13 +6050,13 @@
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="2">
         <v>131.38</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="2">
         <v>54496467750</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="3">
         <v>150</v>
       </c>
       <c r="E243">
@@ -6062,13 +6067,13 @@
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="2">
         <v>52.59</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="2">
         <v>214825898424</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="3">
         <v>376</v>
       </c>
       <c r="E244">
@@ -6079,13 +6084,13 @@
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="2">
         <v>632.25</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="2">
         <v>178626201097</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="3">
         <v>31</v>
       </c>
       <c r="E245">
@@ -6096,13 +6101,13 @@
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="2">
         <v>50.3</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="2">
         <v>19499278146</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246" s="3">
         <v>393</v>
       </c>
       <c r="E246">
@@ -6113,13 +6118,13 @@
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="2">
         <v>38.04</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247" s="2">
         <v>14513484695</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="3">
         <v>520</v>
       </c>
       <c r="E247">
@@ -6130,13 +6135,13 @@
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="2">
         <v>170.58</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="2">
         <v>9249364887</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="3">
         <v>116</v>
       </c>
       <c r="E248">
@@ -6147,13 +6152,13 @@
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="2">
         <v>266.22</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="2">
         <v>48922823446</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="3">
         <v>74</v>
       </c>
       <c r="E249">
@@ -6164,13 +6169,13 @@
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="2">
         <v>60.48</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="2">
         <v>24692719354</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="3">
         <v>327</v>
       </c>
       <c r="E250">
@@ -6181,13 +6186,13 @@
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="2">
         <v>48.49</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="2">
         <v>13973854313</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="3">
         <v>408</v>
       </c>
       <c r="E251">
@@ -6198,13 +6203,13 @@
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="2">
         <v>366.29</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="2">
         <v>130270900162</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="3">
         <v>54</v>
       </c>
       <c r="E252">
@@ -6215,13 +6220,13 @@
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="2">
         <v>340.21</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="2">
         <v>27990786446</v>
       </c>
-      <c r="D253" s="1">
+      <c r="D253" s="3">
         <v>58</v>
       </c>
       <c r="E253">
@@ -6232,13 +6237,13 @@
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="2">
         <v>248.19</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="2">
         <v>78094020876</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="3">
         <v>79</v>
       </c>
       <c r="E254">
@@ -6249,13 +6254,13 @@
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="2">
         <v>27.21</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="2">
         <v>12385536792</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="3">
         <v>727</v>
       </c>
       <c r="E255">
@@ -6266,13 +6271,13 @@
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="2">
         <v>151.87</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="2">
         <v>19230988609</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256" s="3">
         <v>130</v>
       </c>
       <c r="E256">
@@ -6283,13 +6288,13 @@
       <c r="A257" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="2">
         <v>208.67</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="2">
         <v>20983982692</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="3">
         <v>94</v>
       </c>
       <c r="E257">
@@ -6300,13 +6305,13 @@
       <c r="A258" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="2">
         <v>80.59999999999999</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="2">
         <v>58088797120</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="3">
         <v>245</v>
       </c>
       <c r="E258">
@@ -6317,13 +6322,13 @@
       <c r="A259" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="2">
         <v>157.93</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="2">
         <v>12032703214</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="3">
         <v>125</v>
       </c>
       <c r="E259">
@@ -6334,13 +6339,13 @@
       <c r="A260" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="2">
         <v>170.97</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="2">
         <v>445322235263</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="3">
         <v>115</v>
       </c>
       <c r="E260">
@@ -6351,13 +6356,13 @@
       <c r="A261" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="2">
         <v>32.41</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="2">
         <v>10740241198</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="3">
         <v>610</v>
       </c>
       <c r="E261">
@@ -6368,13 +6373,13 @@
       <c r="A262" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="2">
         <v>171.82</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="2">
         <v>511149059494</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="3">
         <v>115</v>
       </c>
       <c r="E262">
@@ -6385,13 +6390,13 @@
       <c r="A263" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="2">
         <v>66.19</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="2">
         <v>21750026806</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263" s="3">
         <v>299</v>
       </c>
       <c r="E263">
@@ -6402,13 +6407,13 @@
       <c r="A264" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="2">
         <v>25.28</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="2">
         <v>23160732084</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="3">
         <v>783</v>
       </c>
       <c r="E264">
@@ -6419,13 +6424,13 @@
       <c r="A265" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="2">
         <v>193.03</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="2">
         <v>34576723342</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="3">
         <v>102</v>
       </c>
       <c r="E265">
@@ -6436,13 +6441,13 @@
       <c r="A266" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="2">
         <v>38.77</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="2">
         <v>46141909721</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="3">
         <v>510</v>
       </c>
       <c r="E266">
@@ -6453,13 +6458,13 @@
       <c r="A267" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="2">
         <v>24.41</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="2">
         <v>15120688029</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="3">
         <v>811</v>
       </c>
       <c r="E267">
@@ -6470,13 +6475,13 @@
       <c r="A268" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="2">
         <v>416.09</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="2">
         <v>65406927795</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="3">
         <v>47</v>
       </c>
       <c r="E268">
@@ -6487,13 +6492,13 @@
       <c r="A269" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="2">
         <v>137.73</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="2">
         <v>47330317111</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="3">
         <v>143</v>
       </c>
       <c r="E269">
@@ -6504,13 +6509,13 @@
       <c r="A270" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="2">
         <v>17.09</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="2">
         <v>38844448940</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="3">
         <v>1158</v>
       </c>
       <c r="E270">
@@ -6521,13 +6526,13 @@
       <c r="A271" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="2">
         <v>152.17</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="2">
         <v>24294230592</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="3">
         <v>130</v>
       </c>
       <c r="E271">
@@ -6538,13 +6543,13 @@
       <c r="A272" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="2">
         <v>58.82</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="2">
         <v>252347095951</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272" s="3">
         <v>336</v>
       </c>
       <c r="E272">
@@ -6555,13 +6560,13 @@
       <c r="A273" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="2">
         <v>44.09</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273" s="2">
         <v>31684815153</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="3">
         <v>449</v>
       </c>
       <c r="E273">
@@ -6572,13 +6577,13 @@
       <c r="A274" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="2">
         <v>58.13</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="2">
         <v>8823311562</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="3">
         <v>340</v>
       </c>
       <c r="E274">
@@ -6589,13 +6594,13 @@
       <c r="A275" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="2">
         <v>323.49</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="2">
         <v>29635867675</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D275" s="3">
         <v>61</v>
       </c>
       <c r="E275">
@@ -6606,13 +6611,13 @@
       <c r="A276" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="2">
         <v>58.81</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="2">
         <v>14703292963</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276" s="3">
         <v>336</v>
       </c>
       <c r="E276">
@@ -6623,13 +6628,13 @@
       <c r="A277" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="2">
         <v>83.87</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="2">
         <v>22899147554</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="3">
         <v>236</v>
       </c>
       <c r="E277">
@@ -6640,13 +6645,13 @@
       <c r="A278" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="2">
         <v>97.41</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="2">
         <v>13712391934</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="3">
         <v>203</v>
       </c>
       <c r="E278">
@@ -6657,13 +6662,13 @@
       <c r="A279" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="2">
         <v>46.19</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="2">
         <v>6128724800</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="3">
         <v>428</v>
       </c>
       <c r="E279">
@@ -6674,13 +6679,13 @@
       <c r="A280" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="2">
         <v>109.68</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280" s="2">
         <v>33287239799</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280" s="3">
         <v>180</v>
       </c>
       <c r="E280">
@@ -6691,13 +6696,13 @@
       <c r="A281" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="2">
         <v>308.54</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281" s="2">
         <v>28537726958</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="3">
         <v>64</v>
       </c>
       <c r="E281">
@@ -6708,13 +6713,13 @@
       <c r="A282" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="2">
         <v>223.1</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="2">
         <v>44388206040</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="3">
         <v>88</v>
       </c>
       <c r="E282">
@@ -6725,13 +6730,13 @@
       <c r="A283" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="2">
         <v>344.63</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="2">
         <v>180144886469</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="3">
         <v>57</v>
       </c>
       <c r="E283">
@@ -6742,13 +6747,13 @@
       <c r="A284" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="2">
         <v>60.56</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284" s="2">
         <v>17814433208</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D284" s="3">
         <v>326</v>
       </c>
       <c r="E284">
@@ -6759,13 +6764,13 @@
       <c r="A285" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="2">
         <v>269.51</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285" s="2">
         <v>252631429995</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285" s="3">
         <v>73</v>
       </c>
       <c r="E285">
@@ -6776,13 +6781,13 @@
       <c r="A286" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="2">
         <v>345.53</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="2">
         <v>93560001915</v>
       </c>
-      <c r="D286" s="1">
+      <c r="D286" s="3">
         <v>57</v>
       </c>
       <c r="E286">
@@ -6793,13 +6798,13 @@
       <c r="A287" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="2">
         <v>76.42</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="2">
         <v>13529312523</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287" s="3">
         <v>259</v>
       </c>
       <c r="E287">
@@ -6810,13 +6815,13 @@
       <c r="A288" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="2">
         <v>57.05</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288" s="2">
         <v>14394606306</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288" s="3">
         <v>347</v>
       </c>
       <c r="E288">
@@ -6827,13 +6832,13 @@
       <c r="A289" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="2">
         <v>239.75</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289" s="2">
         <v>171348901680</v>
       </c>
-      <c r="D289" s="1">
+      <c r="D289" s="3">
         <v>82</v>
       </c>
       <c r="E289">
@@ -6844,13 +6849,13 @@
       <c r="A290" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="2">
         <v>634.49</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="2">
         <v>89594246535</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="3">
         <v>31</v>
       </c>
       <c r="E290">
@@ -6861,13 +6866,13 @@
       <c r="A291" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="2">
         <v>48.86</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C291" s="2">
         <v>29407539240</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291" s="3">
         <v>405</v>
       </c>
       <c r="E291">
@@ -6878,13 +6883,13 @@
       <c r="A292" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="2">
         <v>40.4</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C292" s="2">
         <v>31301026115</v>
       </c>
-      <c r="D292" s="1">
+      <c r="D292" s="3">
         <v>490</v>
       </c>
       <c r="E292">
@@ -6895,13 +6900,13 @@
       <c r="A293" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="2">
         <v>57.86</v>
       </c>
-      <c r="C293" s="1">
+      <c r="C293" s="2">
         <v>8496308971</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293" s="3">
         <v>342</v>
       </c>
       <c r="E293">
@@ -6912,13 +6917,13 @@
       <c r="A294" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="2">
         <v>99.44</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C294" s="2">
         <v>31796401974</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294" s="3">
         <v>199</v>
       </c>
       <c r="E294">
@@ -6929,13 +6934,13 @@
       <c r="A295" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="2">
         <v>115.91</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C295" s="2">
         <v>26134337899</v>
       </c>
-      <c r="D295" s="1">
+      <c r="D295" s="3">
         <v>170</v>
       </c>
       <c r="E295">
@@ -6946,13 +6951,13 @@
       <c r="A296" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="2">
         <v>372.8</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296" s="2">
         <v>362782528047</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="3">
         <v>53</v>
       </c>
       <c r="E296">
@@ -6963,13 +6968,13 @@
       <c r="A297" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="2">
         <v>209.57</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297" s="2">
         <v>24012419235</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="3">
         <v>94</v>
       </c>
       <c r="E297">
@@ -6980,13 +6985,13 @@
       <c r="A298" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="2">
         <v>157.79</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C298" s="2">
         <v>53338773728</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298" s="3">
         <v>125</v>
       </c>
       <c r="E298">
@@ -6997,13 +7002,13 @@
       <c r="A299" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="2">
         <v>69.81999999999999</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299" s="2">
         <v>16509155359</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299" s="3">
         <v>283</v>
       </c>
       <c r="E299">
@@ -7014,13 +7019,13 @@
       <c r="A300" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="2">
         <v>261.25</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300" s="2">
         <v>189931149819</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300" s="3">
         <v>75</v>
       </c>
       <c r="E300">
@@ -7031,13 +7036,13 @@
       <c r="A301" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="2">
         <v>86.17</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C301" s="2">
         <v>47380385531</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301" s="3">
         <v>229</v>
       </c>
       <c r="E301">
@@ -7048,13 +7053,13 @@
       <c r="A302" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="2">
         <v>232.11</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302" s="2">
         <v>35239314151</v>
       </c>
-      <c r="D302" s="1">
+      <c r="D302" s="3">
         <v>85</v>
       </c>
       <c r="E302">
@@ -7065,13 +7070,13 @@
       <c r="A303" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="2">
         <v>398.11</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C303" s="2">
         <v>74429381611</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303" s="3">
         <v>49</v>
       </c>
       <c r="E303">
@@ -7082,13 +7087,13 @@
       <c r="A304" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="2">
         <v>64.02</v>
       </c>
-      <c r="C304" s="1">
+      <c r="C304" s="2">
         <v>88647658403</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304" s="3">
         <v>309</v>
       </c>
       <c r="E304">
@@ -7099,13 +7104,13 @@
       <c r="A305" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="2">
         <v>124.23</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C305" s="2">
         <v>163061555634</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305" s="3">
         <v>159</v>
       </c>
       <c r="E305">
@@ -7116,13 +7121,13 @@
       <c r="A306" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="2">
         <v>64.91</v>
       </c>
-      <c r="C306" s="1">
+      <c r="C306" s="2">
         <v>55330096751</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306" s="3">
         <v>305</v>
       </c>
       <c r="E306">
@@ -7133,13 +7138,13 @@
       <c r="A307" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="2">
         <v>47.14</v>
       </c>
-      <c r="C307" s="1">
+      <c r="C307" s="2">
         <v>21760255625</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307" s="3">
         <v>420</v>
       </c>
       <c r="E307">
@@ -7150,13 +7155,13 @@
       <c r="A308" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="2">
         <v>183.11</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C308" s="2">
         <v>12537586044</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308" s="3">
         <v>108</v>
       </c>
       <c r="E308">
@@ -7167,13 +7172,13 @@
       <c r="A309" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="2">
         <v>82.43000000000001</v>
       </c>
-      <c r="C309" s="1">
+      <c r="C309" s="2">
         <v>22431487649</v>
       </c>
-      <c r="D309" s="1">
+      <c r="D309" s="3">
         <v>240</v>
       </c>
       <c r="E309">
@@ -7184,13 +7189,13 @@
       <c r="A310" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="2">
         <v>403.34</v>
       </c>
-      <c r="C310" s="1">
+      <c r="C310" s="2">
         <v>15033037262</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="3">
         <v>49</v>
       </c>
       <c r="E310">
@@ -7201,13 +7206,13 @@
       <c r="A311" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="2">
         <v>435.48</v>
       </c>
-      <c r="C311" s="1">
+      <c r="C311" s="2">
         <v>26459892199</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311" s="3">
         <v>45</v>
       </c>
       <c r="E311">
@@ -7218,13 +7223,13 @@
       <c r="A312" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="2">
         <v>170.3</v>
       </c>
-      <c r="C312" s="1">
+      <c r="C312" s="2">
         <v>87090308539</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312" s="3">
         <v>116</v>
       </c>
       <c r="E312">
@@ -7235,13 +7240,13 @@
       <c r="A313" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="2">
         <v>190.44</v>
       </c>
-      <c r="C313" s="1">
+      <c r="C313" s="2">
         <v>107843353092</v>
       </c>
-      <c r="D313" s="1">
+      <c r="D313" s="3">
         <v>103</v>
       </c>
       <c r="E313">
@@ -7252,13 +7257,13 @@
       <c r="A314" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="2">
         <v>93.3</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C314" s="2">
         <v>50667569427</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314" s="3">
         <v>212</v>
       </c>
       <c r="E314">
@@ -7269,13 +7274,13 @@
       <c r="A315" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="2">
         <v>45.74</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C315" s="2">
         <v>83526841107</v>
       </c>
-      <c r="D315" s="1">
+      <c r="D315" s="3">
         <v>432</v>
       </c>
       <c r="E315">
@@ -7286,13 +7291,13 @@
       <c r="A316" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="2">
         <v>39.2</v>
       </c>
-      <c r="C316" s="1">
+      <c r="C316" s="2">
         <v>14405212191</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316" s="3">
         <v>505</v>
       </c>
       <c r="E316">
@@ -7303,13 +7308,13 @@
       <c r="A317" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="2">
         <v>66.3</v>
       </c>
-      <c r="C317" s="1">
+      <c r="C317" s="2">
         <v>40814795761</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="3">
         <v>298</v>
       </c>
       <c r="E317">
@@ -7320,13 +7325,13 @@
       <c r="A318" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="2">
         <v>87</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318" s="2">
         <v>217872429866</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="3">
         <v>227</v>
       </c>
       <c r="E318">
@@ -7337,13 +7342,13 @@
       <c r="A319" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="2">
         <v>17.29</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319" s="2">
         <v>13418259050</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="3">
         <v>1145</v>
       </c>
       <c r="E319">
@@ -7354,13 +7359,13 @@
       <c r="A320" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="2">
         <v>102.56</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320" s="2">
         <v>180933383042</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="3">
         <v>193</v>
       </c>
       <c r="E320">
@@ -7371,13 +7376,13 @@
       <c r="A321" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="2">
         <v>655.88</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="2">
         <v>56414186423</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="3">
         <v>30</v>
       </c>
       <c r="E321">
@@ -7388,13 +7393,13 @@
       <c r="A322" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="2">
         <v>340.95</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="2">
         <v>2559094642622</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="3">
         <v>58</v>
       </c>
       <c r="E322">
@@ -7405,13 +7410,13 @@
       <c r="A323" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="2">
         <v>255.78</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="2">
         <v>44566099258</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="3">
         <v>77</v>
       </c>
       <c r="E323">
@@ -7422,13 +7427,13 @@
       <c r="A324" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="2">
         <v>167.43</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="2">
         <v>20808343183</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="3">
         <v>118</v>
       </c>
       <c r="E324">
@@ -7439,13 +7444,13 @@
       <c r="A325" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="2">
         <v>1596.87</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="2">
         <v>36086729717</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="3">
         <v>12</v>
       </c>
       <c r="E325">
@@ -7456,13 +7461,13 @@
       <c r="A326" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="2">
         <v>78.59999999999999</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="2">
         <v>88487534471</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="3">
         <v>251</v>
       </c>
       <c r="E326">
@@ -7473,13 +7478,13 @@
       <c r="A327" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="2">
         <v>103.21</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="2">
         <v>27751908868</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="3">
         <v>191</v>
       </c>
       <c r="E327">
@@ -7490,13 +7495,13 @@
       <c r="A328" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="2">
         <v>16.207</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="2">
         <v>8605441180</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="3">
         <v>1221</v>
       </c>
       <c r="E328">
@@ -7507,13 +7512,13 @@
       <c r="A329" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="2">
         <v>8.66</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="2">
         <v>4189510872</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="3">
         <v>2286</v>
       </c>
       <c r="E329">
@@ -7524,13 +7529,13 @@
       <c r="A330" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="2">
         <v>25.76</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="2">
         <v>5542910168</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="3">
         <v>768</v>
       </c>
       <c r="E330">
@@ -7541,13 +7546,13 @@
       <c r="A331" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="2">
         <v>211.44</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="2">
         <v>36214553933</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="3">
         <v>93</v>
       </c>
       <c r="E331">
@@ -7558,13 +7563,13 @@
       <c r="A332" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="2">
         <v>87</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="2">
         <v>172764742644</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="3">
         <v>227</v>
       </c>
       <c r="E332">
@@ -7575,13 +7580,13 @@
       <c r="A333" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="2">
         <v>61.66</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="2">
         <v>46861892080</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="3">
         <v>321</v>
       </c>
       <c r="E333">
@@ -7592,13 +7597,13 @@
       <c r="A334" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="2">
         <v>712.47</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="2">
         <v>316224735335</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="3">
         <v>27</v>
       </c>
       <c r="E334">
@@ -7609,13 +7614,13 @@
       <c r="A335" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="2">
         <v>26.13</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="2">
         <v>10096576115</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="3">
         <v>757</v>
       </c>
       <c r="E335">
@@ -7626,13 +7631,13 @@
       <c r="A336" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="2">
         <v>170.51</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="2">
         <v>269322413253</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="3">
         <v>116</v>
       </c>
       <c r="E336">
@@ -7643,13 +7648,13 @@
       <c r="A337" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="2">
         <v>26.06</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="2">
         <v>15474848082</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="3">
         <v>759</v>
       </c>
       <c r="E337">
@@ -7660,13 +7665,13 @@
       <c r="A338" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="2">
         <v>21.93</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="2">
         <v>7848426181</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="3">
         <v>902</v>
       </c>
       <c r="E338">
@@ -7677,13 +7682,13 @@
       <c r="A339" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="2">
         <v>361.14</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="2">
         <v>57101750456</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="3">
         <v>54</v>
       </c>
       <c r="E339">
@@ -7694,13 +7699,13 @@
       <c r="A340" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="2">
         <v>14.42</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="2">
         <v>5596165715</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="3">
         <v>1373</v>
       </c>
       <c r="E340">
@@ -7711,13 +7716,13 @@
       <c r="A341" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="2">
         <v>705.4</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="2">
         <v>139495306151</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="3">
         <v>28</v>
       </c>
       <c r="E341">
@@ -7728,13 +7733,13 @@
       <c r="A342" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="2">
         <v>37</v>
       </c>
-      <c r="C342" s="1">
+      <c r="C342" s="2">
         <v>8980796986</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342" s="3">
         <v>535</v>
       </c>
       <c r="E342">
@@ -7745,13 +7750,13 @@
       <c r="A343" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="2">
         <v>286.97</v>
       </c>
-      <c r="C343" s="1">
+      <c r="C343" s="2">
         <v>72848896449</v>
       </c>
-      <c r="D343" s="1">
+      <c r="D343" s="3">
         <v>69</v>
       </c>
       <c r="E343">
@@ -7762,13 +7767,13 @@
       <c r="A344" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="2">
         <v>92.06999999999999</v>
       </c>
-      <c r="C344" s="1">
+      <c r="C344" s="2">
         <v>20336733267</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344" s="3">
         <v>215</v>
       </c>
       <c r="E344">
@@ -7779,13 +7784,13 @@
       <c r="A345" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="2">
         <v>127.1</v>
       </c>
-      <c r="C345" s="1">
+      <c r="C345" s="2">
         <v>26928487432</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345" s="3">
         <v>155</v>
       </c>
       <c r="E345">
@@ -7796,13 +7801,13 @@
       <c r="A346" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="2">
         <v>117</v>
       </c>
-      <c r="C346" s="1">
+      <c r="C346" s="2">
         <v>34089279876</v>
       </c>
-      <c r="D346" s="1">
+      <c r="D346" s="3">
         <v>169</v>
       </c>
       <c r="E346">
@@ -7813,13 +7818,13 @@
       <c r="A347" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="2">
         <v>314</v>
       </c>
-      <c r="C347" s="1">
+      <c r="C347" s="2">
         <v>775727203080</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347" s="3">
         <v>63</v>
       </c>
       <c r="E347">
@@ -7830,13 +7835,13 @@
       <c r="A348" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="2">
         <v>5389.92</v>
       </c>
-      <c r="C348" s="1">
+      <c r="C348" s="2">
         <v>18649811363</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348" s="3">
         <v>3</v>
       </c>
       <c r="E348">
@@ -7847,13 +7852,13 @@
       <c r="A349" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="2">
         <v>25.46</v>
       </c>
-      <c r="C349" s="1">
+      <c r="C349" s="2">
         <v>10585928694</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349" s="3">
         <v>777</v>
       </c>
       <c r="E349">
@@ -7864,13 +7869,13 @@
       <c r="A350" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="2">
         <v>24.19</v>
       </c>
-      <c r="C350" s="1">
+      <c r="C350" s="2">
         <v>14301901929</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350" s="3">
         <v>818</v>
       </c>
       <c r="E350">
@@ -7881,13 +7886,13 @@
       <c r="A351" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="2">
         <v>24.89</v>
       </c>
-      <c r="C351" s="1">
+      <c r="C351" s="2">
         <v>14359760562</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351" s="3">
         <v>795</v>
       </c>
       <c r="E351">
@@ -7898,13 +7903,13 @@
       <c r="A352" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="2">
         <v>74.64</v>
       </c>
-      <c r="C352" s="1">
+      <c r="C352" s="2">
         <v>29881928318</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="3">
         <v>265</v>
       </c>
       <c r="E352">
@@ -7915,13 +7920,13 @@
       <c r="A353" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="2">
         <v>360.63</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C353" s="2">
         <v>42306172217</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353" s="3">
         <v>54</v>
       </c>
       <c r="E353">
@@ -7932,13 +7937,13 @@
       <c r="A354" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="2">
         <v>65.06999999999999</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C354" s="2">
         <v>29168422799</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354" s="3">
         <v>304</v>
       </c>
       <c r="E354">
@@ -7949,13 +7954,13 @@
       <c r="A355" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="2">
         <v>69.5</v>
       </c>
-      <c r="C355" s="1">
+      <c r="C355" s="2">
         <v>15008981440</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355" s="3">
         <v>284</v>
       </c>
       <c r="E355">
@@ -7966,13 +7971,13 @@
       <c r="A356" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="2">
         <v>97.02</v>
       </c>
-      <c r="C356" s="1">
+      <c r="C356" s="2">
         <v>261375410738</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356" s="3">
         <v>204</v>
       </c>
       <c r="E356">
@@ -7983,13 +7988,13 @@
       <c r="A357" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="2">
         <v>660.6900000000001</v>
       </c>
-      <c r="C357" s="1">
+      <c r="C357" s="2">
         <v>45515948540</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="3">
         <v>29</v>
       </c>
       <c r="E357">
@@ -8000,13 +8005,13 @@
       <c r="A358" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="2">
         <v>86.39</v>
       </c>
-      <c r="C358" s="1">
+      <c r="C358" s="2">
         <v>38183251726</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358" s="3">
         <v>229</v>
       </c>
       <c r="E358">
@@ -8017,13 +8022,13 @@
       <c r="A359" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="2">
         <v>33.64</v>
       </c>
-      <c r="C359" s="1">
+      <c r="C359" s="2">
         <v>30024664037</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359" s="3">
         <v>588</v>
       </c>
       <c r="E359">
@@ -8034,13 +8039,13 @@
       <c r="A360" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="2">
         <v>503.39</v>
       </c>
-      <c r="C360" s="1">
+      <c r="C360" s="2">
         <v>30818425900</v>
       </c>
-      <c r="D360" s="1">
+      <c r="D360" s="3">
         <v>39</v>
       </c>
       <c r="E360">
@@ -8051,13 +8056,13 @@
       <c r="A361" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="2">
         <v>128.5</v>
       </c>
-      <c r="C361" s="1">
+      <c r="C361" s="2">
         <v>46432481695</v>
       </c>
-      <c r="D361" s="1">
+      <c r="D361" s="3">
         <v>154</v>
       </c>
       <c r="E361">
@@ -8068,13 +8073,13 @@
       <c r="A362" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B362" s="2">
         <v>18.64</v>
       </c>
-      <c r="C362" s="1">
+      <c r="C362" s="2">
         <v>7995606742</v>
       </c>
-      <c r="D362" s="1">
+      <c r="D362" s="3">
         <v>1062</v>
       </c>
       <c r="E362">
@@ -8085,13 +8090,13 @@
       <c r="A363" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B363" s="2">
         <v>90.48</v>
       </c>
-      <c r="C363" s="1">
+      <c r="C363" s="2">
         <v>31230514867</v>
       </c>
-      <c r="D363" s="1">
+      <c r="D363" s="3">
         <v>218</v>
       </c>
       <c r="E363">
@@ -8102,13 +8107,13 @@
       <c r="A364" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B364" s="2">
         <v>34.5</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C364" s="2">
         <v>18346952967</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364" s="3">
         <v>573</v>
       </c>
       <c r="E364">
@@ -8119,13 +8124,13 @@
       <c r="A365" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B365" s="2">
         <v>62.79</v>
       </c>
-      <c r="C365" s="1">
+      <c r="C365" s="2">
         <v>31906013879</v>
       </c>
-      <c r="D365" s="1">
+      <c r="D365" s="3">
         <v>315</v>
       </c>
       <c r="E365">
@@ -8136,13 +8141,13 @@
       <c r="A366" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B366" s="2">
         <v>163.92</v>
       </c>
-      <c r="C366" s="1">
+      <c r="C366" s="2">
         <v>225236717846</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366" s="3">
         <v>120</v>
       </c>
       <c r="E366">
@@ -8153,13 +8158,13 @@
       <c r="A367" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B367" s="2">
         <v>51.38</v>
       </c>
-      <c r="C367" s="1">
+      <c r="C367" s="2">
         <v>283500518063</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367" s="3">
         <v>385</v>
       </c>
       <c r="E367">
@@ -8170,13 +8175,13 @@
       <c r="A368" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B368" s="1">
+      <c r="B368" s="2">
         <v>71.39</v>
       </c>
-      <c r="C368" s="1">
+      <c r="C368" s="2">
         <v>18623026677</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368" s="3">
         <v>277</v>
       </c>
       <c r="E368">
@@ -8187,13 +8192,13 @@
       <c r="A369" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369" s="2">
         <v>153.47</v>
       </c>
-      <c r="C369" s="1">
+      <c r="C369" s="2">
         <v>368432532923</v>
       </c>
-      <c r="D369" s="1">
+      <c r="D369" s="3">
         <v>129</v>
       </c>
       <c r="E369">
@@ -8204,13 +8209,13 @@
       <c r="A370" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370" s="2">
         <v>98.59</v>
       </c>
-      <c r="C370" s="1">
+      <c r="C370" s="2">
         <v>57003483019</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370" s="3">
         <v>200</v>
       </c>
       <c r="E370">
@@ -8221,13 +8226,13 @@
       <c r="A371" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371" s="2">
         <v>339</v>
       </c>
-      <c r="C371" s="1">
+      <c r="C371" s="2">
         <v>44332723930</v>
       </c>
-      <c r="D371" s="1">
+      <c r="D371" s="3">
         <v>58</v>
       </c>
       <c r="E371">
@@ -8238,13 +8243,13 @@
       <c r="A372" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372" s="2">
         <v>53.46</v>
       </c>
-      <c r="C372" s="1">
+      <c r="C372" s="2">
         <v>13078553972</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372" s="3">
         <v>370</v>
       </c>
       <c r="E372">
@@ -8255,13 +8260,13 @@
       <c r="A373" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373" s="2">
         <v>136.52</v>
       </c>
-      <c r="C373" s="1">
+      <c r="C373" s="2">
         <v>12981139294</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373" s="3">
         <v>145</v>
       </c>
       <c r="E373">
@@ -8272,13 +8277,13 @@
       <c r="A374" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374" s="2">
         <v>192.52</v>
       </c>
-      <c r="C374" s="1">
+      <c r="C374" s="2">
         <v>24037989579</v>
       </c>
-      <c r="D374" s="1">
+      <c r="D374" s="3">
         <v>102</v>
       </c>
       <c r="E374">
@@ -8289,13 +8294,13 @@
       <c r="A375" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375" s="2">
         <v>153.85</v>
       </c>
-      <c r="C375" s="1">
+      <c r="C375" s="2">
         <v>113991681549</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375" s="3">
         <v>128</v>
       </c>
       <c r="E375">
@@ -8306,13 +8311,13 @@
       <c r="A376" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376" s="2">
         <v>98.62</v>
       </c>
-      <c r="C376" s="1">
+      <c r="C376" s="2">
         <v>153232438134</v>
       </c>
-      <c r="D376" s="1">
+      <c r="D376" s="3">
         <v>200</v>
       </c>
       <c r="E376">
@@ -8323,13 +8328,13 @@
       <c r="A377" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377" s="2">
         <v>209.85</v>
       </c>
-      <c r="C377" s="1">
+      <c r="C377" s="2">
         <v>87715233303</v>
       </c>
-      <c r="D377" s="1">
+      <c r="D377" s="3">
         <v>94</v>
       </c>
       <c r="E377">
@@ -8340,13 +8345,13 @@
       <c r="A378" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="2">
         <v>76.8</v>
       </c>
-      <c r="C378" s="1">
+      <c r="C378" s="2">
         <v>12846095909</v>
       </c>
-      <c r="D378" s="1">
+      <c r="D378" s="3">
         <v>257</v>
       </c>
       <c r="E378">
@@ -8357,13 +8362,13 @@
       <c r="A379" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379" s="2">
         <v>67.5</v>
       </c>
-      <c r="C379" s="1">
+      <c r="C379" s="2">
         <v>7483261208</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D379" s="3">
         <v>293</v>
       </c>
       <c r="E379">
@@ -8374,13 +8379,13 @@
       <c r="A380" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380" s="2">
         <v>169.29</v>
       </c>
-      <c r="C380" s="1">
+      <c r="C380" s="2">
         <v>39974476459</v>
       </c>
-      <c r="D380" s="1">
+      <c r="D380" s="3">
         <v>116</v>
       </c>
       <c r="E380">
@@ -8391,13 +8396,13 @@
       <c r="A381" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381" s="2">
         <v>28.8</v>
       </c>
-      <c r="C381" s="1">
+      <c r="C381" s="2">
         <v>22091556120</v>
       </c>
-      <c r="D381" s="1">
+      <c r="D381" s="3">
         <v>687</v>
       </c>
       <c r="E381">
@@ -8408,13 +8413,13 @@
       <c r="A382" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382" s="2">
         <v>43.9</v>
       </c>
-      <c r="C382" s="1">
+      <c r="C382" s="2">
         <v>5976369613</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382" s="3">
         <v>451</v>
       </c>
       <c r="E382">
@@ -8425,13 +8430,13 @@
       <c r="A383" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383" s="2">
         <v>114</v>
       </c>
-      <c r="C383" s="1">
+      <c r="C383" s="2">
         <v>43303984354</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383" s="3">
         <v>173</v>
       </c>
       <c r="E383">
@@ -8442,13 +8447,13 @@
       <c r="A384" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384" s="2">
         <v>335.48</v>
       </c>
-      <c r="C384" s="1">
+      <c r="C384" s="2">
         <v>60220603813</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384" s="3">
         <v>59</v>
       </c>
       <c r="E384">
@@ -8459,13 +8464,13 @@
       <c r="A385" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385" s="2">
         <v>78.14</v>
       </c>
-      <c r="C385" s="1">
+      <c r="C385" s="2">
         <v>35120835403</v>
       </c>
-      <c r="D385" s="1">
+      <c r="D385" s="3">
         <v>253</v>
       </c>
       <c r="E385">
@@ -8476,13 +8481,13 @@
       <c r="A386" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386" s="2">
         <v>120.69</v>
       </c>
-      <c r="C386" s="1">
+      <c r="C386" s="2">
         <v>8840293717</v>
       </c>
-      <c r="D386" s="1">
+      <c r="D386" s="3">
         <v>164</v>
       </c>
       <c r="E386">
@@ -8493,13 +8498,13 @@
       <c r="A387" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387" s="2">
         <v>119.86</v>
       </c>
-      <c r="C387" s="1">
+      <c r="C387" s="2">
         <v>16938051027</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D387" s="3">
         <v>165</v>
       </c>
       <c r="E387">
@@ -8510,13 +8515,13 @@
       <c r="A388" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388" s="2">
         <v>186.92</v>
       </c>
-      <c r="C388" s="1">
+      <c r="C388" s="2">
         <v>45274972976</v>
       </c>
-      <c r="D388" s="1">
+      <c r="D388" s="3">
         <v>105</v>
       </c>
       <c r="E388">
@@ -8527,13 +8532,13 @@
       <c r="A389" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389" s="2">
         <v>216.9</v>
       </c>
-      <c r="C389" s="1">
+      <c r="C389" s="2">
         <v>247668308000</v>
       </c>
-      <c r="D389" s="1">
+      <c r="D389" s="3">
         <v>91</v>
       </c>
       <c r="E389">
@@ -8544,13 +8549,13 @@
       <c r="A390" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390" s="2">
         <v>165.12</v>
       </c>
-      <c r="C390" s="1">
+      <c r="C390" s="2">
         <v>186763138520</v>
       </c>
-      <c r="D390" s="1">
+      <c r="D390" s="3">
         <v>119</v>
       </c>
       <c r="E390">
@@ -8561,13 +8566,13 @@
       <c r="A391" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391" s="2">
         <v>165.5</v>
       </c>
-      <c r="C391" s="1">
+      <c r="C391" s="2">
         <v>18433477790</v>
       </c>
-      <c r="D391" s="1">
+      <c r="D391" s="3">
         <v>119</v>
       </c>
       <c r="E391">
@@ -8578,13 +8583,13 @@
       <c r="A392" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392" s="2">
         <v>85.36</v>
       </c>
-      <c r="C392" s="1">
+      <c r="C392" s="2">
         <v>21987010139</v>
       </c>
-      <c r="D392" s="1">
+      <c r="D392" s="3">
         <v>231</v>
       </c>
       <c r="E392">
@@ -8595,13 +8600,13 @@
       <c r="A393" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393" s="2">
         <v>283.64</v>
       </c>
-      <c r="C393" s="1">
+      <c r="C393" s="2">
         <v>11400907708</v>
       </c>
-      <c r="D393" s="1">
+      <c r="D393" s="3">
         <v>69</v>
       </c>
       <c r="E393">
@@ -8612,13 +8617,13 @@
       <c r="A394" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394" s="2">
         <v>75.81999999999999</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394" s="2">
         <v>13104224660</v>
       </c>
-      <c r="D394" s="1">
+      <c r="D394" s="3">
         <v>261</v>
       </c>
       <c r="E394">
@@ -8629,13 +8634,13 @@
       <c r="A395" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395" s="2">
         <v>656.9</v>
       </c>
-      <c r="C395" s="1">
+      <c r="C395" s="2">
         <v>69602607193</v>
       </c>
-      <c r="D395" s="1">
+      <c r="D395" s="3">
         <v>30</v>
       </c>
       <c r="E395">
@@ -8646,13 +8651,13 @@
       <c r="A396" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396" s="2">
         <v>24.69</v>
       </c>
-      <c r="C396" s="1">
+      <c r="C396" s="2">
         <v>23627910040</v>
       </c>
-      <c r="D396" s="1">
+      <c r="D396" s="3">
         <v>802</v>
       </c>
       <c r="E396">
@@ -8663,13 +8668,13 @@
       <c r="A397" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397" s="2">
         <v>120.15</v>
       </c>
-      <c r="C397" s="1">
+      <c r="C397" s="2">
         <v>13239728633</v>
       </c>
-      <c r="D397" s="1">
+      <c r="D397" s="3">
         <v>164</v>
       </c>
       <c r="E397">
@@ -8680,13 +8685,13 @@
       <c r="A398" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398" s="2">
         <v>102.51</v>
       </c>
-      <c r="C398" s="1">
+      <c r="C398" s="2">
         <v>14104185941</v>
       </c>
-      <c r="D398" s="1">
+      <c r="D398" s="3">
         <v>193</v>
       </c>
       <c r="E398">
@@ -8697,13 +8702,13 @@
       <c r="A399" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399" s="2">
         <v>125.49</v>
       </c>
-      <c r="C399" s="1">
+      <c r="C399" s="2">
         <v>9343807630</v>
       </c>
-      <c r="D399" s="1">
+      <c r="D399" s="3">
         <v>157</v>
       </c>
       <c r="E399">
@@ -8714,13 +8719,13 @@
       <c r="A400" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400" s="2">
         <v>267.18</v>
       </c>
-      <c r="C400" s="1">
+      <c r="C400" s="2">
         <v>38941709194</v>
       </c>
-      <c r="D400" s="1">
+      <c r="D400" s="3">
         <v>74</v>
       </c>
       <c r="E400">
@@ -8731,13 +8736,13 @@
       <c r="A401" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401" s="2">
         <v>342.9</v>
       </c>
-      <c r="C401" s="1">
+      <c r="C401" s="2">
         <v>39056735530</v>
       </c>
-      <c r="D401" s="1">
+      <c r="D401" s="3">
         <v>57</v>
       </c>
       <c r="E401">
@@ -8748,13 +8753,13 @@
       <c r="A402" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B402" s="2">
         <v>37.47</v>
       </c>
-      <c r="C402" s="1">
+      <c r="C402" s="2">
         <v>18269094693</v>
       </c>
-      <c r="D402" s="1">
+      <c r="D402" s="3">
         <v>528</v>
       </c>
       <c r="E402">
@@ -8765,13 +8770,13 @@
       <c r="A403" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B403" s="2">
         <v>511.95</v>
       </c>
-      <c r="C403" s="1">
+      <c r="C403" s="2">
         <v>53406666731</v>
       </c>
-      <c r="D403" s="1">
+      <c r="D403" s="3">
         <v>38</v>
       </c>
       <c r="E403">
@@ -8782,13 +8787,13 @@
       <c r="A404" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B404" s="2">
         <v>118.7</v>
       </c>
-      <c r="C404" s="1">
+      <c r="C404" s="2">
         <v>42875317798</v>
       </c>
-      <c r="D404" s="1">
+      <c r="D404" s="3">
         <v>166</v>
       </c>
       <c r="E404">
@@ -8799,13 +8804,13 @@
       <c r="A405" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B405" s="2">
         <v>137.83</v>
       </c>
-      <c r="C405" s="1">
+      <c r="C405" s="2">
         <v>43015997820</v>
       </c>
-      <c r="D405" s="1">
+      <c r="D405" s="3">
         <v>143</v>
       </c>
       <c r="E405">
@@ -8816,13 +8821,13 @@
       <c r="A406" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="2">
         <v>90.18000000000001</v>
       </c>
-      <c r="C406" s="1">
+      <c r="C406" s="2">
         <v>136211486401</v>
       </c>
-      <c r="D406" s="1">
+      <c r="D406" s="3">
         <v>219</v>
       </c>
       <c r="E406">
@@ -8833,13 +8838,13 @@
       <c r="A407" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B407" s="1">
+      <c r="B407" s="2">
         <v>360.17</v>
       </c>
-      <c r="C407" s="1">
+      <c r="C407" s="2">
         <v>37978006839</v>
       </c>
-      <c r="D407" s="1">
+      <c r="D407" s="3">
         <v>54</v>
       </c>
       <c r="E407">
@@ -8850,13 +8855,13 @@
       <c r="A408" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B408" s="2">
         <v>113.67</v>
       </c>
-      <c r="C408" s="1">
+      <c r="C408" s="2">
         <v>137333780599</v>
       </c>
-      <c r="D408" s="1">
+      <c r="D408" s="3">
         <v>174</v>
       </c>
       <c r="E408">
@@ -8867,13 +8872,13 @@
       <c r="A409" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B409" s="2">
         <v>83.14</v>
       </c>
-      <c r="C409" s="1">
+      <c r="C409" s="2">
         <v>155073350897</v>
       </c>
-      <c r="D409" s="1">
+      <c r="D409" s="3">
         <v>238</v>
       </c>
       <c r="E409">
@@ -8884,13 +8889,13 @@
       <c r="A410" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B410" s="2">
         <v>66.37</v>
       </c>
-      <c r="C410" s="1">
+      <c r="C410" s="2">
         <v>10248726732</v>
       </c>
-      <c r="D410" s="1">
+      <c r="D410" s="3">
         <v>298</v>
       </c>
       <c r="E410">
@@ -8901,13 +8906,13 @@
       <c r="A411" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B411" s="2">
         <v>344.3</v>
       </c>
-      <c r="C411" s="1">
+      <c r="C411" s="2">
         <v>88854611923</v>
       </c>
-      <c r="D411" s="1">
+      <c r="D411" s="3">
         <v>57</v>
       </c>
       <c r="E411">
@@ -8918,13 +8923,13 @@
       <c r="A412" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B412" s="2">
         <v>749</v>
       </c>
-      <c r="C412" s="1">
+      <c r="C412" s="2">
         <v>45013353662</v>
       </c>
-      <c r="D412" s="1">
+      <c r="D412" s="3">
         <v>26</v>
       </c>
       <c r="E412">
@@ -8935,13 +8940,13 @@
       <c r="A413" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B413" s="2">
         <v>131.3</v>
       </c>
-      <c r="C413" s="1">
+      <c r="C413" s="2">
         <v>14217679362</v>
       </c>
-      <c r="D413" s="1">
+      <c r="D413" s="3">
         <v>150</v>
       </c>
       <c r="E413">
@@ -8952,13 +8957,13 @@
       <c r="A414" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="2">
         <v>34.36</v>
       </c>
-      <c r="C414" s="1">
+      <c r="C414" s="2">
         <v>46690909474</v>
       </c>
-      <c r="D414" s="1">
+      <c r="D414" s="3">
         <v>576</v>
       </c>
       <c r="E414">
@@ -8969,13 +8974,13 @@
       <c r="A415" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B415" s="2">
         <v>79.13</v>
       </c>
-      <c r="C415" s="1">
+      <c r="C415" s="2">
         <v>5278921948</v>
       </c>
-      <c r="D415" s="1">
+      <c r="D415" s="3">
         <v>250</v>
       </c>
       <c r="E415">
@@ -8986,13 +8991,13 @@
       <c r="A416" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B416" s="2">
         <v>224.72</v>
       </c>
-      <c r="C416" s="1">
+      <c r="C416" s="2">
         <v>12100380825</v>
       </c>
-      <c r="D416" s="1">
+      <c r="D416" s="3">
         <v>88</v>
       </c>
       <c r="E416">
@@ -9003,13 +9008,13 @@
       <c r="A417" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B417" s="2">
         <v>358.91</v>
       </c>
-      <c r="C417" s="1">
+      <c r="C417" s="2">
         <v>54342200070</v>
       </c>
-      <c r="D417" s="1">
+      <c r="D417" s="3">
         <v>55</v>
       </c>
       <c r="E417">
@@ -9020,13 +9025,13 @@
       <c r="A418" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B418" s="2">
         <v>64.44</v>
       </c>
-      <c r="C418" s="1">
+      <c r="C418" s="2">
         <v>67954498180</v>
       </c>
-      <c r="D418" s="1">
+      <c r="D418" s="3">
         <v>307</v>
       </c>
       <c r="E418">
@@ -9037,13 +9042,13 @@
       <c r="A419" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B419" s="1">
+      <c r="B419" s="2">
         <v>165.6</v>
       </c>
-      <c r="C419" s="1">
+      <c r="C419" s="2">
         <v>55049514629</v>
       </c>
-      <c r="D419" s="1">
+      <c r="D419" s="3">
         <v>119</v>
       </c>
       <c r="E419">
@@ -9054,13 +9059,13 @@
       <c r="A420" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B420" s="1">
+      <c r="B420" s="2">
         <v>475.15</v>
       </c>
-      <c r="C420" s="1">
+      <c r="C420" s="2">
         <v>113107434116</v>
       </c>
-      <c r="D420" s="1">
+      <c r="D420" s="3">
         <v>41</v>
       </c>
       <c r="E420">
@@ -9071,13 +9076,13 @@
       <c r="A421" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B421" s="1">
+      <c r="B421" s="2">
         <v>123.9</v>
       </c>
-      <c r="C421" s="1">
+      <c r="C421" s="2">
         <v>40789476626</v>
       </c>
-      <c r="D421" s="1">
+      <c r="D421" s="3">
         <v>159</v>
       </c>
       <c r="E421">
@@ -9088,13 +9093,13 @@
       <c r="A422" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B422" s="1">
+      <c r="B422" s="2">
         <v>234.05</v>
       </c>
-      <c r="C422" s="1">
+      <c r="C422" s="2">
         <v>23526295693</v>
       </c>
-      <c r="D422" s="1">
+      <c r="D422" s="3">
         <v>84</v>
       </c>
       <c r="E422">
@@ -9105,13 +9110,13 @@
       <c r="A423" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B423" s="1">
+      <c r="B423" s="2">
         <v>103.81</v>
       </c>
-      <c r="C423" s="1">
+      <c r="C423" s="2">
         <v>34740536864</v>
       </c>
-      <c r="D423" s="1">
+      <c r="D423" s="3">
         <v>190</v>
       </c>
       <c r="E423">
@@ -9122,13 +9127,13 @@
       <c r="A424" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B424" s="1">
+      <c r="B424" s="2">
         <v>110.05</v>
       </c>
-      <c r="C424" s="1">
+      <c r="C424" s="2">
         <v>24379630795</v>
       </c>
-      <c r="D424" s="1">
+      <c r="D424" s="3">
         <v>179</v>
       </c>
       <c r="E424">
@@ -9139,13 +9144,13 @@
       <c r="A425" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B425" s="1">
+      <c r="B425" s="2">
         <v>235.67</v>
       </c>
-      <c r="C425" s="1">
+      <c r="C425" s="2">
         <v>42686629067</v>
       </c>
-      <c r="D425" s="1">
+      <c r="D425" s="3">
         <v>84</v>
       </c>
       <c r="E425">
@@ -9156,13 +9161,13 @@
       <c r="A426" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B426" s="1">
+      <c r="B426" s="2">
         <v>205.23</v>
       </c>
-      <c r="C426" s="1">
+      <c r="C426" s="2">
         <v>33044254396</v>
       </c>
-      <c r="D426" s="1">
+      <c r="D426" s="3">
         <v>96</v>
       </c>
       <c r="E426">
@@ -9173,13 +9178,13 @@
       <c r="A427" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B427" s="1">
+      <c r="B427" s="2">
         <v>167.08</v>
       </c>
-      <c r="C427" s="1">
+      <c r="C427" s="2">
         <v>28093886413</v>
       </c>
-      <c r="D427" s="1">
+      <c r="D427" s="3">
         <v>118</v>
       </c>
       <c r="E427">
@@ -9190,13 +9195,13 @@
       <c r="A428" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B428" s="1">
+      <c r="B428" s="2">
         <v>50.52</v>
       </c>
-      <c r="C428" s="1">
+      <c r="C428" s="2">
         <v>27556363536</v>
       </c>
-      <c r="D428" s="1">
+      <c r="D428" s="3">
         <v>391</v>
       </c>
       <c r="E428">
@@ -9207,13 +9212,13 @@
       <c r="A429" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B429" s="1">
+      <c r="B429" s="2">
         <v>268.02</v>
       </c>
-      <c r="C429" s="1">
+      <c r="C429" s="2">
         <v>104606000243</v>
       </c>
-      <c r="D429" s="1">
+      <c r="D429" s="3">
         <v>73</v>
       </c>
       <c r="E429">
@@ -9224,13 +9229,13 @@
       <c r="A430" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B430" s="1">
+      <c r="B430" s="2">
         <v>77.45999999999999</v>
       </c>
-      <c r="C430" s="1">
+      <c r="C430" s="2">
         <v>40706650782</v>
       </c>
-      <c r="D430" s="1">
+      <c r="D430" s="3">
         <v>255</v>
       </c>
       <c r="E430">
@@ -9241,13 +9246,13 @@
       <c r="A431" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B431" s="1">
+      <c r="B431" s="2">
         <v>25.38</v>
       </c>
-      <c r="C431" s="1">
+      <c r="C431" s="2">
         <v>185716530715</v>
       </c>
-      <c r="D431" s="1">
+      <c r="D431" s="3">
         <v>780</v>
       </c>
       <c r="E431">
@@ -9258,13 +9263,13 @@
       <c r="A432" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B432" s="1">
+      <c r="B432" s="2">
         <v>49.8</v>
       </c>
-      <c r="C432" s="1">
+      <c r="C432" s="2">
         <v>10018252728</v>
       </c>
-      <c r="D432" s="1">
+      <c r="D432" s="3">
         <v>397</v>
       </c>
       <c r="E432">
@@ -9275,13 +9280,13 @@
       <c r="A433" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B433" s="1">
+      <c r="B433" s="2">
         <v>653</v>
       </c>
-      <c r="C433" s="1">
+      <c r="C433" s="2">
         <v>36815062183</v>
       </c>
-      <c r="D433" s="1">
+      <c r="D433" s="3">
         <v>30</v>
       </c>
       <c r="E433">
@@ -9292,13 +9297,13 @@
       <c r="A434" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B434" s="1">
+      <c r="B434" s="2">
         <v>463.18</v>
       </c>
-      <c r="C434" s="1">
+      <c r="C434" s="2">
         <v>21074981804</v>
       </c>
-      <c r="D434" s="1">
+      <c r="D434" s="3">
         <v>42</v>
       </c>
       <c r="E434">
@@ -9309,13 +9314,13 @@
       <c r="A435" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B435" s="1">
+      <c r="B435" s="2">
         <v>169.29</v>
       </c>
-      <c r="C435" s="1">
+      <c r="C435" s="2">
         <v>54068313240</v>
       </c>
-      <c r="D435" s="1">
+      <c r="D435" s="3">
         <v>116</v>
       </c>
       <c r="E435">
@@ -9326,13 +9331,13 @@
       <c r="A436" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B436" s="1">
+      <c r="B436" s="2">
         <v>64.8</v>
       </c>
-      <c r="C436" s="1">
+      <c r="C436" s="2">
         <v>86191255135</v>
       </c>
-      <c r="D436" s="1">
+      <c r="D436" s="3">
         <v>305</v>
       </c>
       <c r="E436">
@@ -9343,13 +9348,13 @@
       <c r="A437" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B437" s="1">
+      <c r="B437" s="2">
         <v>349.69</v>
       </c>
-      <c r="C437" s="1">
+      <c r="C437" s="2">
         <v>16671333593</v>
       </c>
-      <c r="D437" s="1">
+      <c r="D437" s="3">
         <v>56</v>
       </c>
       <c r="E437">
@@ -9360,13 +9365,13 @@
       <c r="A438" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B438" s="1">
+      <c r="B438" s="2">
         <v>265.03</v>
       </c>
-      <c r="C438" s="1">
+      <c r="C438" s="2">
         <v>129882169400</v>
       </c>
-      <c r="D438" s="1">
+      <c r="D438" s="3">
         <v>74</v>
       </c>
       <c r="E438">
@@ -9377,13 +9382,13 @@
       <c r="A439" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B439" s="1">
+      <c r="B439" s="2">
         <v>135.48</v>
       </c>
-      <c r="C439" s="1">
+      <c r="C439" s="2">
         <v>16710653820</v>
       </c>
-      <c r="D439" s="1">
+      <c r="D439" s="3">
         <v>146</v>
       </c>
       <c r="E439">
@@ -9394,13 +9399,13 @@
       <c r="A440" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B440" s="1">
+      <c r="B440" s="2">
         <v>69.2</v>
       </c>
-      <c r="C440" s="1">
+      <c r="C440" s="2">
         <v>85719006506</v>
       </c>
-      <c r="D440" s="1">
+      <c r="D440" s="3">
         <v>286</v>
       </c>
       <c r="E440">
@@ -9411,13 +9416,13 @@
       <c r="A441" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B441" s="1">
+      <c r="B441" s="2">
         <v>644.5700000000001</v>
       </c>
-      <c r="C441" s="1">
+      <c r="C441" s="2">
         <v>250819699977</v>
       </c>
-      <c r="D441" s="1">
+      <c r="D441" s="3">
         <v>30</v>
       </c>
       <c r="E441">
@@ -9428,13 +9433,13 @@
       <c r="A442" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B442" s="1">
+      <c r="B442" s="2">
         <v>119.57</v>
       </c>
-      <c r="C442" s="1">
+      <c r="C442" s="2">
         <v>154651571594</v>
       </c>
-      <c r="D442" s="1">
+      <c r="D442" s="3">
         <v>165</v>
       </c>
       <c r="E442">
@@ -9445,13 +9450,13 @@
       <c r="A443" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B443" s="1">
+      <c r="B443" s="2">
         <v>47.55</v>
       </c>
-      <c r="C443" s="1">
+      <c r="C443" s="2">
         <v>13120321814</v>
       </c>
-      <c r="D443" s="1">
+      <c r="D443" s="3">
         <v>416</v>
       </c>
       <c r="E443">
@@ -9462,13 +9467,13 @@
       <c r="A444" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B444" s="1">
+      <c r="B444" s="2">
         <v>225.13</v>
       </c>
-      <c r="C444" s="1">
+      <c r="C444" s="2">
         <v>50795995031</v>
       </c>
-      <c r="D444" s="1">
+      <c r="D444" s="3">
         <v>87</v>
       </c>
       <c r="E444">
@@ -9479,13 +9484,13 @@
       <c r="A445" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B445" s="1">
+      <c r="B445" s="2">
         <v>164.93</v>
       </c>
-      <c r="C445" s="1">
+      <c r="C445" s="2">
         <v>39781613758</v>
       </c>
-      <c r="D445" s="1">
+      <c r="D445" s="3">
         <v>120</v>
       </c>
       <c r="E445">
@@ -9496,13 +9501,13 @@
       <c r="A446" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B446" s="1">
+      <c r="B446" s="2">
         <v>230.59</v>
       </c>
-      <c r="C446" s="1">
+      <c r="C446" s="2">
         <v>25527596130</v>
       </c>
-      <c r="D446" s="1">
+      <c r="D446" s="3">
         <v>85</v>
       </c>
       <c r="E446">
@@ -9513,13 +9518,13 @@
       <c r="A447" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B447" s="1">
+      <c r="B447" s="2">
         <v>82.98999999999999</v>
       </c>
-      <c r="C447" s="1">
+      <c r="C447" s="2">
         <v>30695099354</v>
       </c>
-      <c r="D447" s="1">
+      <c r="D447" s="3">
         <v>238</v>
       </c>
       <c r="E447">
@@ -9530,13 +9535,13 @@
       <c r="A448" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B448" s="1">
+      <c r="B448" s="2">
         <v>200.15</v>
       </c>
-      <c r="C448" s="1">
+      <c r="C448" s="2">
         <v>46426873089</v>
       </c>
-      <c r="D448" s="1">
+      <c r="D448" s="3">
         <v>98</v>
       </c>
       <c r="E448">
@@ -9547,13 +9552,13 @@
       <c r="A449" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B449" s="1">
+      <c r="B449" s="2">
         <v>187.89</v>
       </c>
-      <c r="C449" s="1">
+      <c r="C449" s="2">
         <v>22461405795</v>
       </c>
-      <c r="D449" s="1">
+      <c r="D449" s="3">
         <v>105</v>
       </c>
       <c r="E449">
@@ -9564,13 +9569,13 @@
       <c r="A450" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B450" s="1">
+      <c r="B450" s="2">
         <v>54.3</v>
       </c>
-      <c r="C450" s="1">
+      <c r="C450" s="2">
         <v>43161713150</v>
       </c>
-      <c r="D450" s="1">
+      <c r="D450" s="3">
         <v>364</v>
       </c>
       <c r="E450">
@@ -9581,13 +9586,13 @@
       <c r="A451" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B451" s="1">
+      <c r="B451" s="2">
         <v>195.79</v>
       </c>
-      <c r="C451" s="1">
+      <c r="C451" s="2">
         <v>179917457456</v>
       </c>
-      <c r="D451" s="1">
+      <c r="D451" s="3">
         <v>101</v>
       </c>
       <c r="E451">
@@ -9598,13 +9603,13 @@
       <c r="A452" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B452" s="1">
+      <c r="B452" s="2">
         <v>79.37</v>
       </c>
-      <c r="C452" s="1">
+      <c r="C452" s="2">
         <v>17513263010</v>
       </c>
-      <c r="D452" s="1">
+      <c r="D452" s="3">
         <v>249</v>
       </c>
       <c r="E452">
@@ -9615,13 +9620,13 @@
       <c r="A453" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B453" s="1">
+      <c r="B453" s="2">
         <v>568.86</v>
       </c>
-      <c r="C453" s="1">
+      <c r="C453" s="2">
         <v>23265834652</v>
       </c>
-      <c r="D453" s="1">
+      <c r="D453" s="3">
         <v>34</v>
       </c>
       <c r="E453">
@@ -9632,13 +9637,13 @@
       <c r="A454" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B454" s="1">
+      <c r="B454" s="2">
         <v>21.46</v>
       </c>
-      <c r="C454" s="1">
+      <c r="C454" s="2">
         <v>10952471515</v>
       </c>
-      <c r="D454" s="1">
+      <c r="D454" s="3">
         <v>922</v>
       </c>
       <c r="E454">
@@ -9649,13 +9654,13 @@
       <c r="A455" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B455" s="1">
+      <c r="B455" s="2">
         <v>25.94</v>
       </c>
-      <c r="C455" s="1">
+      <c r="C455" s="2">
         <v>10481273869</v>
       </c>
-      <c r="D455" s="1">
+      <c r="D455" s="3">
         <v>763</v>
       </c>
       <c r="E455">
@@ -9666,13 +9671,13 @@
       <c r="A456" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B456" s="1">
+      <c r="B456" s="2">
         <v>51.64</v>
       </c>
-      <c r="C456" s="1">
+      <c r="C456" s="2">
         <v>16534955373</v>
       </c>
-      <c r="D456" s="1">
+      <c r="D456" s="3">
         <v>383</v>
       </c>
       <c r="E456">
@@ -9683,13 +9688,13 @@
       <c r="A457" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B457" s="1">
+      <c r="B457" s="2">
         <v>56.4</v>
       </c>
-      <c r="C457" s="1">
+      <c r="C457" s="2">
         <v>17479986787</v>
       </c>
-      <c r="D457" s="1">
+      <c r="D457" s="3">
         <v>351</v>
       </c>
       <c r="E457">
@@ -9700,13 +9705,13 @@
       <c r="A458" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B458" s="1">
+      <c r="B458" s="2">
         <v>135.99</v>
       </c>
-      <c r="C458" s="1">
+      <c r="C458" s="2">
         <v>11294069124</v>
       </c>
-      <c r="D458" s="1">
+      <c r="D458" s="3">
         <v>145</v>
       </c>
       <c r="E458">
@@ -9717,13 +9722,13 @@
       <c r="A459" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B459" s="1">
+      <c r="B459" s="2">
         <v>407.1</v>
       </c>
-      <c r="C459" s="1">
+      <c r="C459" s="2">
         <v>21604807945</v>
       </c>
-      <c r="D459" s="1">
+      <c r="D459" s="3">
         <v>48</v>
       </c>
       <c r="E459">
@@ -9734,13 +9739,13 @@
       <c r="A460" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B460" s="1">
+      <c r="B460" s="2">
         <v>466.96</v>
       </c>
-      <c r="C460" s="1">
+      <c r="C460" s="2">
         <v>440116980525</v>
       </c>
-      <c r="D460" s="1">
+      <c r="D460" s="3">
         <v>42</v>
       </c>
       <c r="E460">
@@ -9751,13 +9756,13 @@
       <c r="A461" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B461" s="1">
+      <c r="B461" s="2">
         <v>27.78</v>
       </c>
-      <c r="C461" s="1">
+      <c r="C461" s="2">
         <v>5523987761</v>
       </c>
-      <c r="D461" s="1">
+      <c r="D461" s="3">
         <v>712</v>
       </c>
       <c r="E461">
@@ -9768,13 +9773,13 @@
       <c r="A462" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B462" s="1">
+      <c r="B462" s="2">
         <v>252.68</v>
       </c>
-      <c r="C462" s="1">
+      <c r="C462" s="2">
         <v>155869938930</v>
       </c>
-      <c r="D462" s="1">
+      <c r="D462" s="3">
         <v>78</v>
       </c>
       <c r="E462">
@@ -9785,13 +9790,13 @@
       <c r="A463" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B463" s="1">
+      <c r="B463" s="2">
         <v>218.96</v>
       </c>
-      <c r="C463" s="1">
+      <c r="C463" s="2">
         <v>191089560014</v>
       </c>
-      <c r="D463" s="1">
+      <c r="D463" s="3">
         <v>90</v>
       </c>
       <c r="E463">
@@ -9802,13 +9807,13 @@
       <c r="A464" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B464" s="1">
+      <c r="B464" s="2">
         <v>388.44</v>
       </c>
-      <c r="C464" s="1">
+      <c r="C464" s="2">
         <v>28311196383</v>
       </c>
-      <c r="D464" s="1">
+      <c r="D464" s="3">
         <v>50</v>
       </c>
       <c r="E464">
@@ -9819,13 +9824,13 @@
       <c r="A465" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B465" s="1">
+      <c r="B465" s="2">
         <v>61.7</v>
       </c>
-      <c r="C465" s="1">
+      <c r="C465" s="2">
         <v>93185307656</v>
       </c>
-      <c r="D465" s="1">
+      <c r="D465" s="3">
         <v>320</v>
       </c>
       <c r="E465">
@@ -9836,13 +9841,13 @@
       <c r="A466" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B466" s="1">
+      <c r="B466" s="2">
         <v>219.43</v>
       </c>
-      <c r="C466" s="1">
+      <c r="C466" s="2">
         <v>487871297198</v>
       </c>
-      <c r="D466" s="1">
+      <c r="D466" s="3">
         <v>90</v>
       </c>
       <c r="E466">
@@ -9853,13 +9858,13 @@
       <c r="A467" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B467" s="1">
+      <c r="B467" s="2">
         <v>182.83</v>
       </c>
-      <c r="C467" s="1">
+      <c r="C467" s="2">
         <v>16273307141</v>
       </c>
-      <c r="D467" s="1">
+      <c r="D467" s="3">
         <v>108</v>
       </c>
       <c r="E467">
@@ -9870,13 +9875,13 @@
       <c r="A468" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B468" s="1">
+      <c r="B468" s="2">
         <v>78.90000000000001</v>
       </c>
-      <c r="C468" s="1">
+      <c r="C468" s="2">
         <v>31081361088</v>
       </c>
-      <c r="D468" s="1">
+      <c r="D468" s="3">
         <v>250</v>
       </c>
       <c r="E468">
@@ -9887,13 +9892,13 @@
       <c r="A469" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B469" s="2">
         <v>36.2</v>
       </c>
-      <c r="C469" s="1">
+      <c r="C469" s="2">
         <v>22954753330</v>
       </c>
-      <c r="D469" s="1">
+      <c r="D469" s="3">
         <v>547</v>
       </c>
       <c r="E469">
@@ -9904,13 +9909,13 @@
       <c r="A470" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B470" s="1">
+      <c r="B470" s="2">
         <v>78.84999999999999</v>
       </c>
-      <c r="C470" s="1">
+      <c r="C470" s="2">
         <v>32069435843</v>
       </c>
-      <c r="D470" s="1">
+      <c r="D470" s="3">
         <v>251</v>
       </c>
       <c r="E470">
@@ -9921,13 +9926,13 @@
       <c r="A471" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B471" s="1">
+      <c r="B471" s="2">
         <v>210.66</v>
       </c>
-      <c r="C471" s="1">
+      <c r="C471" s="2">
         <v>28034374276</v>
       </c>
-      <c r="D471" s="1">
+      <c r="D471" s="3">
         <v>93</v>
       </c>
       <c r="E471">
@@ -9938,13 +9943,13 @@
       <c r="A472" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B472" s="2">
         <v>45.55</v>
       </c>
-      <c r="C472" s="1">
+      <c r="C472" s="2">
         <v>8920973510</v>
       </c>
-      <c r="D472" s="1">
+      <c r="D472" s="3">
         <v>434</v>
       </c>
       <c r="E472">
@@ -9955,13 +9960,13 @@
       <c r="A473" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B473" s="2">
         <v>217.66</v>
       </c>
-      <c r="C473" s="1">
+      <c r="C473" s="2">
         <v>35215097556</v>
       </c>
-      <c r="D473" s="1">
+      <c r="D473" s="3">
         <v>90</v>
       </c>
       <c r="E473">
@@ -9972,13 +9977,13 @@
       <c r="A474" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B474" s="2">
         <v>237.77</v>
       </c>
-      <c r="C474" s="1">
+      <c r="C474" s="2">
         <v>27162299917</v>
       </c>
-      <c r="D474" s="1">
+      <c r="D474" s="3">
         <v>83</v>
       </c>
       <c r="E474">
@@ -9989,13 +9994,13 @@
       <c r="A475" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B475" s="2">
         <v>191.1</v>
       </c>
-      <c r="C475" s="1">
+      <c r="C475" s="2">
         <v>49400392877</v>
       </c>
-      <c r="D475" s="1">
+      <c r="D475" s="3">
         <v>103</v>
       </c>
       <c r="E475">
@@ -10006,13 +10011,13 @@
       <c r="A476" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B476" s="2">
         <v>54.68</v>
       </c>
-      <c r="C476" s="1">
+      <c r="C476" s="2">
         <v>22031089815</v>
       </c>
-      <c r="D476" s="1">
+      <c r="D476" s="3">
         <v>362</v>
       </c>
       <c r="E476">
@@ -10023,13 +10028,13 @@
       <c r="A477" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B477" s="2">
         <v>53.05</v>
       </c>
-      <c r="C477" s="1">
+      <c r="C477" s="2">
         <v>223456582264</v>
       </c>
-      <c r="D477" s="1">
+      <c r="D477" s="3">
         <v>373</v>
       </c>
       <c r="E477">
@@ -10040,13 +10045,13 @@
       <c r="A478" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B478" s="2">
         <v>99.59</v>
       </c>
-      <c r="C478" s="1">
+      <c r="C478" s="2">
         <v>18539403017</v>
       </c>
-      <c r="D478" s="1">
+      <c r="D478" s="3">
         <v>198</v>
       </c>
       <c r="E478">
@@ -10057,13 +10062,13 @@
       <c r="A479" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B479" s="1">
+      <c r="B479" s="2">
         <v>373.03</v>
       </c>
-      <c r="C479" s="1">
+      <c r="C479" s="2">
         <v>22628434129</v>
       </c>
-      <c r="D479" s="1">
+      <c r="D479" s="3">
         <v>53</v>
       </c>
       <c r="E479">
@@ -10074,13 +10079,13 @@
       <c r="A480" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B480" s="1">
+      <c r="B480" s="2">
         <v>50.7</v>
       </c>
-      <c r="C480" s="1">
+      <c r="C480" s="2">
         <v>42984718121</v>
       </c>
-      <c r="D480" s="1">
+      <c r="D480" s="3">
         <v>390</v>
       </c>
       <c r="E480">
@@ -10091,13 +10096,13 @@
       <c r="A481" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B481" s="1">
+      <c r="B481" s="2">
         <v>61.42</v>
       </c>
-      <c r="C481" s="1">
+      <c r="C481" s="2">
         <v>19079513452</v>
       </c>
-      <c r="D481" s="1">
+      <c r="D481" s="3">
         <v>322</v>
       </c>
       <c r="E481">
@@ -10108,13 +10113,13 @@
       <c r="A482" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B482" s="1">
+      <c r="B482" s="2">
         <v>90.56999999999999</v>
       </c>
-      <c r="C482" s="1">
+      <c r="C482" s="2">
         <v>29032284441</v>
       </c>
-      <c r="D482" s="1">
+      <c r="D482" s="3">
         <v>218</v>
       </c>
       <c r="E482">
@@ -10125,13 +10130,13 @@
       <c r="A483" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B483" s="1">
+      <c r="B483" s="2">
         <v>89.34</v>
       </c>
-      <c r="C483" s="1">
+      <c r="C483" s="2">
         <v>38068445394</v>
       </c>
-      <c r="D483" s="1">
+      <c r="D483" s="3">
         <v>221</v>
       </c>
       <c r="E483">
@@ -10142,13 +10147,13 @@
       <c r="A484" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B484" s="1">
+      <c r="B484" s="2">
         <v>52.03</v>
       </c>
-      <c r="C484" s="1">
+      <c r="C484" s="2">
         <v>214667893748</v>
       </c>
-      <c r="D484" s="1">
+      <c r="D484" s="3">
         <v>380</v>
       </c>
       <c r="E484">
@@ -10159,13 +10164,13 @@
       <c r="A485" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B485" s="1">
+      <c r="B485" s="2">
         <v>240.59</v>
       </c>
-      <c r="C485" s="1">
+      <c r="C485" s="2">
         <v>15180117922</v>
       </c>
-      <c r="D485" s="1">
+      <c r="D485" s="3">
         <v>82</v>
       </c>
       <c r="E485">
@@ -10176,13 +10181,13 @@
       <c r="A486" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B486" s="1">
+      <c r="B486" s="2">
         <v>237.41</v>
       </c>
-      <c r="C486" s="1">
+      <c r="C486" s="2">
         <v>28781177648</v>
       </c>
-      <c r="D486" s="1">
+      <c r="D486" s="3">
         <v>83</v>
       </c>
       <c r="E486">
@@ -10193,13 +10198,13 @@
       <c r="A487" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B487" s="2">
         <v>164.99</v>
       </c>
-      <c r="C487" s="1">
+      <c r="C487" s="2">
         <v>70490311555</v>
       </c>
-      <c r="D487" s="1">
+      <c r="D487" s="3">
         <v>120</v>
       </c>
       <c r="E487">
@@ -10210,13 +10215,13 @@
       <c r="A488" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B488" s="2">
         <v>29.06</v>
       </c>
-      <c r="C488" s="1">
+      <c r="C488" s="2">
         <v>35738563305</v>
       </c>
-      <c r="D488" s="1">
+      <c r="D488" s="3">
         <v>681</v>
       </c>
       <c r="E488">
@@ -10227,13 +10232,13 @@
       <c r="A489" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B489" s="2">
         <v>150.63</v>
       </c>
-      <c r="C489" s="1">
+      <c r="C489" s="2">
         <v>426728774987</v>
       </c>
-      <c r="D489" s="1">
+      <c r="D489" s="3">
         <v>131</v>
       </c>
       <c r="E489">
@@ -10244,13 +10249,13 @@
       <c r="A490" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B490" s="2">
         <v>85.01000000000001</v>
       </c>
-      <c r="C490" s="1">
+      <c r="C490" s="2">
         <v>14866523034</v>
       </c>
-      <c r="D490" s="1">
+      <c r="D490" s="3">
         <v>232</v>
       </c>
       <c r="E490">
@@ -10261,13 +10266,13 @@
       <c r="A491" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B491" s="2">
         <v>51</v>
       </c>
-      <c r="C491" s="1">
+      <c r="C491" s="2">
         <v>13727393864</v>
       </c>
-      <c r="D491" s="1">
+      <c r="D491" s="3">
         <v>388</v>
       </c>
       <c r="E491">
@@ -10278,13 +10283,13 @@
       <c r="A492" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B492" s="2">
         <v>425.06</v>
       </c>
-      <c r="C492" s="1">
+      <c r="C492" s="2">
         <v>31627865488</v>
       </c>
-      <c r="D492" s="1">
+      <c r="D492" s="3">
         <v>46</v>
       </c>
       <c r="E492">
@@ -10295,13 +10300,13 @@
       <c r="A493" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B493" s="1">
+      <c r="B493" s="2">
         <v>18.36</v>
       </c>
-      <c r="C493" s="1">
+      <c r="C493" s="2">
         <v>7420702582</v>
       </c>
-      <c r="D493" s="1">
+      <c r="D493" s="3">
         <v>1078</v>
       </c>
       <c r="E493">
@@ -10312,13 +10317,13 @@
       <c r="A494" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B494" s="1">
+      <c r="B494" s="2">
         <v>38.18</v>
       </c>
-      <c r="C494" s="1">
+      <c r="C494" s="2">
         <v>28318213736</v>
       </c>
-      <c r="D494" s="1">
+      <c r="D494" s="3">
         <v>518</v>
       </c>
       <c r="E494">
@@ -10329,13 +10334,13 @@
       <c r="A495" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B495" s="1">
+      <c r="B495" s="2">
         <v>98.44</v>
       </c>
-      <c r="C495" s="1">
+      <c r="C495" s="2">
         <v>11153739064</v>
       </c>
-      <c r="D495" s="1">
+      <c r="D495" s="3">
         <v>201</v>
       </c>
       <c r="E495">
@@ -10346,13 +10351,13 @@
       <c r="A496" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B496" s="1">
+      <c r="B496" s="2">
         <v>65.08</v>
       </c>
-      <c r="C496" s="1">
+      <c r="C496" s="2">
         <v>34399660673</v>
       </c>
-      <c r="D496" s="1">
+      <c r="D496" s="3">
         <v>304</v>
       </c>
       <c r="E496">
@@ -10363,13 +10368,13 @@
       <c r="A497" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B497" s="1">
+      <c r="B497" s="2">
         <v>224.5</v>
       </c>
-      <c r="C497" s="1">
+      <c r="C497" s="2">
         <v>53173082135</v>
       </c>
-      <c r="D497" s="1">
+      <c r="D497" s="3">
         <v>88</v>
       </c>
       <c r="E497">
@@ -10380,13 +10385,13 @@
       <c r="A498" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B498" s="1">
+      <c r="B498" s="2">
         <v>64.91</v>
       </c>
-      <c r="C498" s="1">
+      <c r="C498" s="2">
         <v>271376661526</v>
       </c>
-      <c r="D498" s="1">
+      <c r="D498" s="3">
         <v>305</v>
       </c>
       <c r="E498">
@@ -10397,13 +10402,13 @@
       <c r="A499" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B499" s="1">
+      <c r="B499" s="2">
         <v>55.13</v>
       </c>
-      <c r="C499" s="1">
+      <c r="C499" s="2">
         <v>12550837673</v>
       </c>
-      <c r="D499" s="1">
+      <c r="D499" s="3">
         <v>359</v>
       </c>
       <c r="E499">
@@ -10414,13 +10419,13 @@
       <c r="A500" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B500" s="1">
+      <c r="B500" s="2">
         <v>21.16</v>
       </c>
-      <c r="C500" s="1">
+      <c r="C500" s="2">
         <v>3678402667</v>
       </c>
-      <c r="D500" s="1">
+      <c r="D500" s="3">
         <v>935</v>
       </c>
       <c r="E500">
@@ -10431,13 +10436,13 @@
       <c r="A501" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B501" s="1">
+      <c r="B501" s="2">
         <v>134.73</v>
       </c>
-      <c r="C501" s="1">
+      <c r="C501" s="2">
         <v>24050793350</v>
       </c>
-      <c r="D501" s="1">
+      <c r="D501" s="3">
         <v>146</v>
       </c>
       <c r="E501">
@@ -10448,13 +10453,13 @@
       <c r="A502" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B502" s="1">
+      <c r="B502" s="2">
         <v>128.88</v>
       </c>
-      <c r="C502" s="1">
+      <c r="C502" s="2">
         <v>38108842994</v>
       </c>
-      <c r="D502" s="1">
+      <c r="D502" s="3">
         <v>153</v>
       </c>
       <c r="E502">
@@ -10465,13 +10470,13 @@
       <c r="A503" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B503" s="1">
+      <c r="B503" s="2">
         <v>138.49</v>
       </c>
-      <c r="C503" s="1">
+      <c r="C503" s="2">
         <v>28842118745</v>
       </c>
-      <c r="D503" s="1">
+      <c r="D503" s="3">
         <v>142</v>
       </c>
       <c r="E503">
@@ -10482,13 +10487,13 @@
       <c r="A504" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B504" s="1">
+      <c r="B504" s="2">
         <v>617.84</v>
       </c>
-      <c r="C504" s="1">
+      <c r="C504" s="2">
         <v>32400189563</v>
       </c>
-      <c r="D504" s="1">
+      <c r="D504" s="3">
         <v>32</v>
       </c>
       <c r="E504">
@@ -10499,13 +10504,13 @@
       <c r="A505" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B505" s="1">
+      <c r="B505" s="2">
         <v>67.56999999999999</v>
       </c>
-      <c r="C505" s="1">
+      <c r="C505" s="2">
         <v>10433136480</v>
       </c>
-      <c r="D505" s="1">
+      <c r="D505" s="3">
         <v>293</v>
       </c>
       <c r="E505">
@@ -10516,13 +10521,13 @@
       <c r="A506" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B506" s="1">
+      <c r="B506" s="2">
         <v>220.58</v>
       </c>
-      <c r="C506" s="1">
+      <c r="C506" s="2">
         <v>105874746660</v>
       </c>
-      <c r="D506" s="1">
+      <c r="D506" s="3">
         <v>89</v>
       </c>
       <c r="E506">

--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="510">
   <si>
     <t>Ticker</t>
   </si>
@@ -1563,7 +1563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF #FFFFFF"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1933,16 +1933,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">

--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d71c48d96579b95b/Documents/GitHub/algorithmic-trading-python/starter_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FB3941460176C6849A67ECD3DF2D1FD9797932C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B88B29B5-898C-4FC0-A0C7-12F025759EE8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended Trades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t>Ticker</t>
   </si>
@@ -1549,11 +1555,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="£0.00"/>
+    <numFmt numFmtId="164" formatCode="\£0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,6 +1638,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1678,7 +1692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1710,9 +1724,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1744,6 +1776,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1919,20 +1969,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +2017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +2034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2034,12 +2085,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>128.73</v>
+        <v>128.72999999999999</v>
       </c>
       <c r="C7" s="2">
         <v>27135101457</v>
@@ -2051,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2068,12 +2119,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>128.7</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="C9" s="2">
         <v>227823018980</v>
@@ -2085,7 +2136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2102,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2119,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2136,12 +2187,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>66.26000000000001</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="C13" s="2">
         <v>38326102669</v>
@@ -2153,7 +2204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2187,12 +2238,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>86.79000000000001</v>
+        <v>86.79</v>
       </c>
       <c r="C16" s="2">
         <v>21756062948</v>
@@ -2204,12 +2255,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>82.20999999999999</v>
+        <v>82.21</v>
       </c>
       <c r="C17" s="2">
         <v>42608022724</v>
@@ -2221,7 +2272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2238,7 +2289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2255,7 +2306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +2323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2289,7 +2340,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2306,7 +2357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2323,7 +2374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2340,7 +2391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2357,7 +2408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2374,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2391,7 +2442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +2476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2442,12 +2493,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>157.8</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="C31" s="2">
         <v>147814936303</v>
@@ -2459,7 +2510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -2476,7 +2527,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2493,7 +2544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2510,7 +2561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2527,12 +2578,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>323.78</v>
+        <v>323.77999999999997</v>
       </c>
       <c r="C36" s="2">
         <v>35501293196</v>
@@ -2544,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2561,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -2578,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2595,7 +2646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2612,7 +2663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -2629,7 +2680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -2646,7 +2697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,7 +2714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -2680,7 +2731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -2714,7 +2765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -2731,7 +2782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -2748,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -2765,7 +2816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +2833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -2799,7 +2850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -2816,7 +2867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2833,7 +2884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -2850,7 +2901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -2867,7 +2918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
@@ -2884,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -2901,7 +2952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2918,7 +2969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -2935,12 +2986,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>135.83</v>
+        <v>135.83000000000001</v>
       </c>
       <c r="C60" s="2">
         <v>33695176174</v>
@@ -2952,7 +3003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -2969,12 +3020,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="2">
-        <v>36.41</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="C62" s="2">
         <v>18701549592</v>
@@ -2986,7 +3037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -3003,7 +3054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -3020,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -3037,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -3054,7 +3105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -3071,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -3088,7 +3139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -3105,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -3122,7 +3173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,7 +3190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -3156,12 +3207,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="2">
-        <v>296.84</v>
+        <v>296.83999999999997</v>
       </c>
       <c r="C73" s="2">
         <v>659121224266</v>
@@ -3173,7 +3224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -3190,7 +3241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
@@ -3207,7 +3258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -3224,12 +3275,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="2">
-        <v>71.70999999999999</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="C77" s="2">
         <v>140368223675</v>
@@ -3241,12 +3292,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="2">
-        <v>32.48</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="C78" s="2">
         <v>16106014966</v>
@@ -3258,7 +3309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
@@ -3275,7 +3326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
@@ -3292,7 +3343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
@@ -3309,7 +3360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,12 +3377,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="2">
-        <v>136.33</v>
+        <v>136.33000000000001</v>
       </c>
       <c r="C83" s="2">
         <v>13978395639</v>
@@ -3343,7 +3394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>87</v>
       </c>
@@ -3360,7 +3411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
@@ -3377,7 +3428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
@@ -3394,7 +3445,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
@@ -3411,7 +3462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -3428,7 +3479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -3445,7 +3496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>93</v>
       </c>
@@ -3462,12 +3513,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="2">
-        <v>65.93000000000001</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="C91" s="2">
         <v>14470773535</v>
@@ -3479,7 +3530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
@@ -3496,7 +3547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
@@ -3513,12 +3564,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="2">
-        <v>96.59999999999999</v>
+        <v>96.6</v>
       </c>
       <c r="C94" s="2">
         <v>12747445091</v>
@@ -3530,7 +3581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
@@ -3547,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
@@ -3564,7 +3615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
@@ -3581,7 +3632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
@@ -3598,7 +3649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -3615,7 +3666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
@@ -3632,7 +3683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
@@ -3649,7 +3700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
@@ -3666,7 +3717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
@@ -3683,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
@@ -3700,7 +3751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
@@ -3717,7 +3768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
@@ -3734,7 +3785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -3751,7 +3802,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -3768,7 +3819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
@@ -3785,7 +3836,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
@@ -3802,7 +3853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
@@ -3819,7 +3870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>115</v>
       </c>
@@ -3836,7 +3887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
@@ -3853,7 +3904,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
@@ -3870,12 +3921,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="2">
-        <v>156.7</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="C115" s="2">
         <v>37129247655</v>
@@ -3887,7 +3938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -3904,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -3921,7 +3972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -3938,7 +3989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
@@ -3955,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -3972,7 +4023,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
@@ -3989,7 +4040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -4006,7 +4057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -4023,7 +4074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -4040,7 +4091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -4057,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -4074,12 +4125,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="2">
-        <v>75.34999999999999</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="C127" s="2">
         <v>61392026562</v>
@@ -4091,7 +4142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -4108,7 +4159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -4125,7 +4176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -4142,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -4159,7 +4210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -4176,7 +4227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -4193,7 +4244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -4210,7 +4261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -4227,7 +4278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -4244,7 +4295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -4261,7 +4312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -4278,12 +4329,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B139" s="2">
-        <v>36.62</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="C139" s="2">
         <v>19986300353</v>
@@ -4295,7 +4346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -4312,7 +4363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -4329,7 +4380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -4346,7 +4397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -4363,12 +4414,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B144" s="2">
-        <v>532.8</v>
+        <v>532.79999999999995</v>
       </c>
       <c r="C144" s="2">
         <v>19566580041</v>
@@ -4380,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -4397,7 +4448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -4414,7 +4465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -4431,7 +4482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -4448,7 +4499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -4465,7 +4516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -4482,12 +4533,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B151" s="2">
-        <v>33.52</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="C151" s="2">
         <v>8565853851</v>
@@ -4499,7 +4550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -4516,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -4533,7 +4584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -4550,7 +4601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -4567,7 +4618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -4584,7 +4635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -4601,7 +4652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -4618,7 +4669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -4635,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -4652,12 +4703,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B161" s="2">
-        <v>97.76000000000001</v>
+        <v>97.76</v>
       </c>
       <c r="C161" s="2">
         <v>60090005113</v>
@@ -4669,12 +4720,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B162" s="2">
-        <v>98.48999999999999</v>
+        <v>98.49</v>
       </c>
       <c r="C162" s="2">
         <v>55822176980</v>
@@ -4686,7 +4737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -4703,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -4720,12 +4771,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B165" s="2">
-        <v>85.34999999999999</v>
+        <v>85.35</v>
       </c>
       <c r="C165" s="2">
         <v>28343227385</v>
@@ -4737,7 +4788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -4754,7 +4805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -4771,7 +4822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -4788,7 +4839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -4805,7 +4856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -4822,7 +4873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -4839,7 +4890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -4856,12 +4907,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B173" s="2">
-        <v>132.45</v>
+        <v>132.44999999999999</v>
       </c>
       <c r="C173" s="2">
         <v>22375713378</v>
@@ -4873,7 +4924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -4890,7 +4941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -4907,12 +4958,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B176" s="2">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C176" s="2">
         <v>77354973445</v>
@@ -4924,7 +4975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -4941,7 +4992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -4958,7 +5009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -4975,7 +5026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -4992,7 +5043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -5009,7 +5060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -5026,7 +5077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -5043,7 +5094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -5060,7 +5111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -5077,7 +5128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -5094,7 +5145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -5111,7 +5162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -5128,7 +5179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -5145,7 +5196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -5162,7 +5213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -5179,7 +5230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -5196,7 +5247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -5213,7 +5264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -5230,7 +5281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -5247,7 +5298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -5264,7 +5315,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -5281,7 +5332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -5298,7 +5349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -5315,7 +5366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -5332,7 +5383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -5349,7 +5400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -5366,12 +5417,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B203" s="2">
-        <v>94.84999999999999</v>
+        <v>94.85</v>
       </c>
       <c r="C203" s="2">
         <v>9944055424</v>
@@ -5383,7 +5434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -5400,12 +5451,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B205" s="2">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="C205" s="2">
         <v>95217067160</v>
@@ -5417,7 +5468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -5434,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -5451,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -5468,7 +5519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -5485,7 +5536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -5502,12 +5553,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B211" s="2">
-        <v>147.73</v>
+        <v>147.72999999999999</v>
       </c>
       <c r="C211" s="2">
         <v>27761131609</v>
@@ -5519,7 +5570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -5536,7 +5587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -5553,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -5570,7 +5621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -5587,7 +5638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -5604,7 +5655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -5621,7 +5672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -5638,7 +5689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -5655,12 +5706,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B220" s="2">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="C220" s="2">
         <v>25460799654</v>
@@ -5672,12 +5723,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B221" s="2">
-        <v>36.16</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="C221" s="2">
         <v>5713095749</v>
@@ -5689,12 +5740,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B222" s="2">
-        <v>74.18000000000001</v>
+        <v>74.180000000000007</v>
       </c>
       <c r="C222" s="2">
         <v>25262064192</v>
@@ -5706,7 +5757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -5723,12 +5774,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B224" s="2">
-        <v>146.08</v>
+        <v>146.08000000000001</v>
       </c>
       <c r="C224" s="2">
         <v>40252634096</v>
@@ -5740,7 +5791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -5757,7 +5808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -5774,7 +5825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -5791,12 +5842,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B228" s="2">
-        <v>32.63</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="C228" s="2">
         <v>38261645324</v>
@@ -5808,7 +5859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -5825,7 +5876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -5842,7 +5893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -5859,7 +5910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -5876,7 +5927,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -5893,7 +5944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -5910,12 +5961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B235" s="2">
-        <v>32.16</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="C235" s="2">
         <v>13958269568</v>
@@ -5927,7 +5978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -5944,12 +5995,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B237" s="2">
-        <v>140.3</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="C237" s="2">
         <v>76753556828</v>
@@ -5961,7 +6012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -5978,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -5995,7 +6046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -6012,7 +6063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -6029,7 +6080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -6046,7 +6097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -6063,7 +6114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -6080,7 +6131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -6097,7 +6148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -6114,7 +6165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -6131,7 +6182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -6148,12 +6199,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B249" s="2">
-        <v>266.22</v>
+        <v>266.22000000000003</v>
       </c>
       <c r="C249" s="2">
         <v>48922823446</v>
@@ -6165,7 +6216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -6182,7 +6233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -6199,7 +6250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -6216,7 +6267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -6233,7 +6284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -6250,7 +6301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -6267,7 +6318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -6284,7 +6335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>260</v>
       </c>
@@ -6301,12 +6352,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B258" s="2">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="C258" s="2">
         <v>58088797120</v>
@@ -6318,7 +6369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>262</v>
       </c>
@@ -6335,7 +6386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>263</v>
       </c>
@@ -6352,12 +6403,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B261" s="2">
-        <v>32.41</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="C261" s="2">
         <v>10740241198</v>
@@ -6369,7 +6420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>265</v>
       </c>
@@ -6386,7 +6437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>266</v>
       </c>
@@ -6403,7 +6454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>267</v>
       </c>
@@ -6420,7 +6471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>268</v>
       </c>
@@ -6437,12 +6488,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B266" s="2">
-        <v>38.77</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="C266" s="2">
         <v>46141909721</v>
@@ -6454,7 +6505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>270</v>
       </c>
@@ -6471,7 +6522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>271</v>
       </c>
@@ -6488,12 +6539,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B269" s="2">
-        <v>137.73</v>
+        <v>137.72999999999999</v>
       </c>
       <c r="C269" s="2">
         <v>47330317111</v>
@@ -6505,7 +6556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>273</v>
       </c>
@@ -6522,12 +6573,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B271" s="2">
-        <v>152.17</v>
+        <v>152.16999999999999</v>
       </c>
       <c r="C271" s="2">
         <v>24294230592</v>
@@ -6539,7 +6590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>275</v>
       </c>
@@ -6556,7 +6607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>276</v>
       </c>
@@ -6573,7 +6624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>277</v>
       </c>
@@ -6590,7 +6641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>278</v>
       </c>
@@ -6607,7 +6658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>279</v>
       </c>
@@ -6624,7 +6675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>280</v>
       </c>
@@ -6641,7 +6692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>281</v>
       </c>
@@ -6658,7 +6709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>282</v>
       </c>
@@ -6675,7 +6726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>283</v>
       </c>
@@ -6692,12 +6743,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B281" s="2">
-        <v>308.54</v>
+        <v>308.54000000000002</v>
       </c>
       <c r="C281" s="2">
         <v>28537726958</v>
@@ -6709,7 +6760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>285</v>
       </c>
@@ -6726,7 +6777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>286</v>
       </c>
@@ -6743,7 +6794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>287</v>
       </c>
@@ -6760,7 +6811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>288</v>
       </c>
@@ -6777,7 +6828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>289</v>
       </c>
@@ -6794,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>290</v>
       </c>
@@ -6811,7 +6862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>291</v>
       </c>
@@ -6828,7 +6879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>292</v>
       </c>
@@ -6845,7 +6896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>293</v>
       </c>
@@ -6862,7 +6913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>294</v>
       </c>
@@ -6879,7 +6930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>295</v>
       </c>
@@ -6896,7 +6947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>296</v>
       </c>
@@ -6913,7 +6964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>297</v>
       </c>
@@ -6930,7 +6981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>298</v>
       </c>
@@ -6947,7 +6998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>299</v>
       </c>
@@ -6964,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>300</v>
       </c>
@@ -6981,7 +7032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>301</v>
       </c>
@@ -6998,12 +7049,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B299" s="2">
-        <v>69.81999999999999</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="C299" s="2">
         <v>16509155359</v>
@@ -7015,7 +7066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>303</v>
       </c>
@@ -7032,7 +7083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>304</v>
       </c>
@@ -7049,7 +7100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>305</v>
       </c>
@@ -7066,7 +7117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>306</v>
       </c>
@@ -7083,7 +7134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>307</v>
       </c>
@@ -7100,7 +7151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>308</v>
       </c>
@@ -7117,7 +7168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>309</v>
       </c>
@@ -7134,7 +7185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>310</v>
       </c>
@@ -7151,7 +7202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>311</v>
       </c>
@@ -7168,12 +7219,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B309" s="2">
-        <v>82.43000000000001</v>
+        <v>82.43</v>
       </c>
       <c r="C309" s="2">
         <v>22431487649</v>
@@ -7185,7 +7236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>313</v>
       </c>
@@ -7202,7 +7253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>314</v>
       </c>
@@ -7219,7 +7270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>315</v>
       </c>
@@ -7236,7 +7287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>316</v>
       </c>
@@ -7253,7 +7304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>317</v>
       </c>
@@ -7270,7 +7321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>318</v>
       </c>
@@ -7287,12 +7338,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B316" s="2">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C316" s="2">
         <v>14405212191</v>
@@ -7304,7 +7355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>320</v>
       </c>
@@ -7321,7 +7372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>321</v>
       </c>
@@ -7338,7 +7389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>322</v>
       </c>
@@ -7355,7 +7406,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>323</v>
       </c>
@@ -7372,7 +7423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>324</v>
       </c>
@@ -7389,7 +7440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>325</v>
       </c>
@@ -7406,7 +7457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>326</v>
       </c>
@@ -7423,7 +7474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>327</v>
       </c>
@@ -7440,7 +7491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>328</v>
       </c>
@@ -7457,12 +7508,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B326" s="2">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C326" s="2">
         <v>88487534471</v>
@@ -7474,7 +7525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>330</v>
       </c>
@@ -7491,12 +7542,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B328" s="2">
-        <v>16.207</v>
+        <v>16.207000000000001</v>
       </c>
       <c r="C328" s="2">
         <v>8605441180</v>
@@ -7508,7 +7559,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>332</v>
       </c>
@@ -7525,7 +7576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>333</v>
       </c>
@@ -7542,7 +7593,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>334</v>
       </c>
@@ -7559,7 +7610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>335</v>
       </c>
@@ -7576,7 +7627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>336</v>
       </c>
@@ -7593,7 +7644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>337</v>
       </c>
@@ -7610,7 +7661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>338</v>
       </c>
@@ -7627,7 +7678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>339</v>
       </c>
@@ -7644,7 +7695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>340</v>
       </c>
@@ -7661,7 +7712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>341</v>
       </c>
@@ -7678,7 +7729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>342</v>
       </c>
@@ -7695,7 +7746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>343</v>
       </c>
@@ -7712,7 +7763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>344</v>
       </c>
@@ -7729,7 +7780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>345</v>
       </c>
@@ -7746,12 +7797,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B343" s="2">
-        <v>286.97</v>
+        <v>286.97000000000003</v>
       </c>
       <c r="C343" s="2">
         <v>72848896449</v>
@@ -7763,12 +7814,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B344" s="2">
-        <v>92.06999999999999</v>
+        <v>92.07</v>
       </c>
       <c r="C344" s="2">
         <v>20336733267</v>
@@ -7780,7 +7831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>348</v>
       </c>
@@ -7797,7 +7848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>349</v>
       </c>
@@ -7814,7 +7865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>350</v>
       </c>
@@ -7831,7 +7882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>351</v>
       </c>
@@ -7848,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>352</v>
       </c>
@@ -7865,7 +7916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>353</v>
       </c>
@@ -7882,7 +7933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>354</v>
       </c>
@@ -7899,7 +7950,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>355</v>
       </c>
@@ -7916,7 +7967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>356</v>
       </c>
@@ -7933,12 +7984,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B354" s="2">
-        <v>65.06999999999999</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="C354" s="2">
         <v>29168422799</v>
@@ -7950,7 +8001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>358</v>
       </c>
@@ -7967,7 +8018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>359</v>
       </c>
@@ -7984,12 +8035,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B357" s="2">
-        <v>660.6900000000001</v>
+        <v>660.69</v>
       </c>
       <c r="C357" s="2">
         <v>45515948540</v>
@@ -8001,7 +8052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>361</v>
       </c>
@@ -8018,7 +8069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>362</v>
       </c>
@@ -8035,7 +8086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>363</v>
       </c>
@@ -8052,7 +8103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>364</v>
       </c>
@@ -8069,7 +8120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>365</v>
       </c>
@@ -8086,7 +8137,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>366</v>
       </c>
@@ -8103,7 +8154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>367</v>
       </c>
@@ -8120,7 +8171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>368</v>
       </c>
@@ -8137,7 +8188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>369</v>
       </c>
@@ -8154,7 +8205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>370</v>
       </c>
@@ -8171,7 +8222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>371</v>
       </c>
@@ -8188,7 +8239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>372</v>
       </c>
@@ -8205,7 +8256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>373</v>
       </c>
@@ -8222,7 +8273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>374</v>
       </c>
@@ -8239,7 +8290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>375</v>
       </c>
@@ -8256,12 +8307,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B373" s="2">
-        <v>136.52</v>
+        <v>136.52000000000001</v>
       </c>
       <c r="C373" s="2">
         <v>12981139294</v>
@@ -8273,7 +8324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>377</v>
       </c>
@@ -8290,7 +8341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>378</v>
       </c>
@@ -8307,7 +8358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>379</v>
       </c>
@@ -8324,7 +8375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>380</v>
       </c>
@@ -8341,7 +8392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>381</v>
       </c>
@@ -8358,7 +8409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>382</v>
       </c>
@@ -8375,7 +8426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>383</v>
       </c>
@@ -8392,7 +8443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>384</v>
       </c>
@@ -8409,7 +8460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>385</v>
       </c>
@@ -8426,7 +8477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>386</v>
       </c>
@@ -8443,7 +8494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>387</v>
       </c>
@@ -8460,7 +8511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>388</v>
       </c>
@@ -8477,7 +8528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>389</v>
       </c>
@@ -8494,7 +8545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>390</v>
       </c>
@@ -8511,7 +8562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>391</v>
       </c>
@@ -8528,7 +8579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>392</v>
       </c>
@@ -8545,7 +8596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>393</v>
       </c>
@@ -8562,7 +8613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>394</v>
       </c>
@@ -8579,7 +8630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>395</v>
       </c>
@@ -8596,7 +8647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>396</v>
       </c>
@@ -8613,12 +8664,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B394" s="2">
-        <v>75.81999999999999</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="C394" s="2">
         <v>13104224660</v>
@@ -8630,7 +8681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>398</v>
       </c>
@@ -8647,7 +8698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>399</v>
       </c>
@@ -8664,7 +8715,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>400</v>
       </c>
@@ -8681,7 +8732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>401</v>
       </c>
@@ -8698,7 +8749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>402</v>
       </c>
@@ -8715,7 +8766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>403</v>
       </c>
@@ -8732,7 +8783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>404</v>
       </c>
@@ -8749,7 +8800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>405</v>
       </c>
@@ -8766,7 +8817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>406</v>
       </c>
@@ -8783,7 +8834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>407</v>
       </c>
@@ -8800,12 +8851,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B405" s="2">
-        <v>137.83</v>
+        <v>137.83000000000001</v>
       </c>
       <c r="C405" s="2">
         <v>43015997820</v>
@@ -8817,12 +8868,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B406" s="2">
-        <v>90.18000000000001</v>
+        <v>90.18</v>
       </c>
       <c r="C406" s="2">
         <v>136211486401</v>
@@ -8834,7 +8885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>410</v>
       </c>
@@ -8851,7 +8902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>411</v>
       </c>
@@ -8868,7 +8919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>412</v>
       </c>
@@ -8885,7 +8936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>413</v>
       </c>
@@ -8902,7 +8953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>414</v>
       </c>
@@ -8919,7 +8970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>415</v>
       </c>
@@ -8936,12 +8987,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B413" s="2">
-        <v>131.3</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="C413" s="2">
         <v>14217679362</v>
@@ -8953,7 +9004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>417</v>
       </c>
@@ -8970,7 +9021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>418</v>
       </c>
@@ -8987,7 +9038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>419</v>
       </c>
@@ -9004,7 +9055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>420</v>
       </c>
@@ -9021,7 +9072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>421</v>
       </c>
@@ -9038,7 +9089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>422</v>
       </c>
@@ -9055,7 +9106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>423</v>
       </c>
@@ -9072,7 +9123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>424</v>
       </c>
@@ -9089,7 +9140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>425</v>
       </c>
@@ -9106,7 +9157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>426</v>
       </c>
@@ -9123,7 +9174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>427</v>
       </c>
@@ -9140,7 +9191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>428</v>
       </c>
@@ -9157,7 +9208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>429</v>
       </c>
@@ -9174,7 +9225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>430</v>
       </c>
@@ -9191,7 +9242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>431</v>
       </c>
@@ -9208,7 +9259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>432</v>
       </c>
@@ -9225,12 +9276,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B430" s="2">
-        <v>77.45999999999999</v>
+        <v>77.459999999999994</v>
       </c>
       <c r="C430" s="2">
         <v>40706650782</v>
@@ -9242,7 +9293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>434</v>
       </c>
@@ -9259,7 +9310,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>435</v>
       </c>
@@ -9276,7 +9327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>436</v>
       </c>
@@ -9293,7 +9344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>437</v>
       </c>
@@ -9310,7 +9361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>438</v>
       </c>
@@ -9327,7 +9378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>439</v>
       </c>
@@ -9344,7 +9395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>440</v>
       </c>
@@ -9361,12 +9412,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B438" s="2">
-        <v>265.03</v>
+        <v>265.02999999999997</v>
       </c>
       <c r="C438" s="2">
         <v>129882169400</v>
@@ -9378,12 +9429,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B439" s="2">
-        <v>135.48</v>
+        <v>135.47999999999999</v>
       </c>
       <c r="C439" s="2">
         <v>16710653820</v>
@@ -9395,7 +9446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>443</v>
       </c>
@@ -9412,12 +9463,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B441" s="2">
-        <v>644.5700000000001</v>
+        <v>644.57000000000005</v>
       </c>
       <c r="C441" s="2">
         <v>250819699977</v>
@@ -9429,7 +9480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>445</v>
       </c>
@@ -9446,7 +9497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>446</v>
       </c>
@@ -9463,7 +9514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>447</v>
       </c>
@@ -9480,7 +9531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>448</v>
       </c>
@@ -9497,7 +9548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>449</v>
       </c>
@@ -9514,12 +9565,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B447" s="2">
-        <v>82.98999999999999</v>
+        <v>82.99</v>
       </c>
       <c r="C447" s="2">
         <v>30695099354</v>
@@ -9531,7 +9582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>451</v>
       </c>
@@ -9548,7 +9599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>452</v>
       </c>
@@ -9565,7 +9616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>453</v>
       </c>
@@ -9582,7 +9633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>454</v>
       </c>
@@ -9599,7 +9650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>455</v>
       </c>
@@ -9616,7 +9667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>456</v>
       </c>
@@ -9633,7 +9684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>457</v>
       </c>
@@ -9650,7 +9701,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>458</v>
       </c>
@@ -9667,7 +9718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>459</v>
       </c>
@@ -9684,7 +9735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>460</v>
       </c>
@@ -9701,7 +9752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>461</v>
       </c>
@@ -9718,7 +9769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>462</v>
       </c>
@@ -9735,7 +9786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>463</v>
       </c>
@@ -9752,7 +9803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>464</v>
       </c>
@@ -9769,7 +9820,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>465</v>
       </c>
@@ -9786,7 +9837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>466</v>
       </c>
@@ -9803,7 +9854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>467</v>
       </c>
@@ -9820,7 +9871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>468</v>
       </c>
@@ -9837,7 +9888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>469</v>
       </c>
@@ -9854,7 +9905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>470</v>
       </c>
@@ -9871,12 +9922,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B468" s="2">
-        <v>78.90000000000001</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="C468" s="2">
         <v>31081361088</v>
@@ -9888,12 +9939,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B469" s="2">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C469" s="2">
         <v>22954753330</v>
@@ -9905,12 +9956,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B470" s="2">
-        <v>78.84999999999999</v>
+        <v>78.849999999999994</v>
       </c>
       <c r="C470" s="2">
         <v>32069435843</v>
@@ -9922,7 +9973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>474</v>
       </c>
@@ -9939,7 +9990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>475</v>
       </c>
@@ -9956,7 +10007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>476</v>
       </c>
@@ -9973,7 +10024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>477</v>
       </c>
@@ -9990,7 +10041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>478</v>
       </c>
@@ -10007,7 +10058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>479</v>
       </c>
@@ -10024,7 +10075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>480</v>
       </c>
@@ -10041,7 +10092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>481</v>
       </c>
@@ -10058,7 +10109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>482</v>
       </c>
@@ -10075,7 +10126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>483</v>
       </c>
@@ -10092,7 +10143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>484</v>
       </c>
@@ -10109,12 +10160,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B482" s="2">
-        <v>90.56999999999999</v>
+        <v>90.57</v>
       </c>
       <c r="C482" s="2">
         <v>29032284441</v>
@@ -10126,7 +10177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>486</v>
       </c>
@@ -10143,7 +10194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>487</v>
       </c>
@@ -10160,7 +10211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>488</v>
       </c>
@@ -10177,7 +10228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>489</v>
       </c>
@@ -10194,7 +10245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>490</v>
       </c>
@@ -10211,7 +10262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>491</v>
       </c>
@@ -10228,7 +10279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>492</v>
       </c>
@@ -10245,12 +10296,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B490" s="2">
-        <v>85.01000000000001</v>
+        <v>85.01</v>
       </c>
       <c r="C490" s="2">
         <v>14866523034</v>
@@ -10262,7 +10313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>494</v>
       </c>
@@ -10279,7 +10330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>495</v>
       </c>
@@ -10296,7 +10347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>496</v>
       </c>
@@ -10313,7 +10364,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>497</v>
       </c>
@@ -10330,7 +10381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>498</v>
       </c>
@@ -10347,7 +10398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>499</v>
       </c>
@@ -10364,7 +10415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>500</v>
       </c>
@@ -10381,7 +10432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>501</v>
       </c>
@@ -10398,7 +10449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>502</v>
       </c>
@@ -10415,7 +10466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>503</v>
       </c>
@@ -10432,12 +10483,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B501" s="2">
-        <v>134.73</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="C501" s="2">
         <v>24050793350</v>
@@ -10449,7 +10500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>505</v>
       </c>
@@ -10466,7 +10517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>506</v>
       </c>
@@ -10483,7 +10534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>507</v>
       </c>
@@ -10500,12 +10551,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B505" s="2">
-        <v>67.56999999999999</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="C505" s="2">
         <v>10433136480</v>
@@ -10517,7 +10568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>509</v>
       </c>
